--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -777,10 +777,10 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.74</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="J4" t="n">
-        <v>4.36</v>
+        <v>4.15</v>
       </c>
       <c r="K4" t="n">
-        <v>2.21</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="M4" t="n">
         <v>1.01</v>
@@ -1135,16 +1135,16 @@
         <v>11.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P4" t="n">
-        <v>3.74</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.71</v>
+        <v>1.65</v>
       </c>
       <c r="R4" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.33</v>
@@ -1153,78 +1153,108 @@
         <v>3.14</v>
       </c>
       <c r="U4" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="V4" t="n">
-        <v>2.22</v>
+        <v>2.02</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>12.5</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="AA4" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP4" t="n">
         <v>26</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AQ4" t="n">
+        <v>110</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>150</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW4" t="inlineStr"/>
+      <c r="AX4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="BA4" t="n">
         <v>30</v>
       </c>
-      <c r="AC4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>50</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
-      <c r="AR4" t="inlineStr"/>
-      <c r="AS4" t="inlineStr"/>
-      <c r="AT4" t="inlineStr"/>
-      <c r="AU4" t="inlineStr"/>
-      <c r="AV4" t="inlineStr"/>
-      <c r="AW4" t="inlineStr"/>
-      <c r="AX4" t="inlineStr"/>
-      <c r="AY4" t="inlineStr"/>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
+      <c r="BB4" t="n">
+        <v>55</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>200</v>
+      </c>
       <c r="BD4" t="inlineStr"/>
     </row>
     <row r="5">
@@ -1283,16 +1313,16 @@
         <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1975,28 +2005,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="H9" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2026,13 +2056,13 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
         <v>15</v>
@@ -2044,44 +2074,44 @@
         <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF9" t="n">
         <v>81</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
       </c>
       <c r="AK9" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM9" t="n">
         <v>67</v>
       </c>
-      <c r="AL9" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>51</v>
-      </c>
       <c r="AN9" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2102,10 +2132,10 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2535,10 +2565,10 @@
         <v>2.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2547,10 +2577,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2717,10 +2747,10 @@
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -3240,55 +3270,151 @@
           <t>Ironi Tiberias</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N16" t="n">
+        <v>9</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U16" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>67</v>
+      </c>
       <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
-      <c r="BC16" t="inlineStr"/>
+      <c r="AX16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>301</v>
+      </c>
       <c r="BD16" t="inlineStr"/>
     </row>
     <row r="17">
@@ -3323,144 +3449,146 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="H17" t="n">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="I17" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
         <v>1.57</v>
       </c>
       <c r="K17" t="n">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="L17" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="M17" t="n">
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="P17" t="n">
-        <v>4.55</v>
+        <v>5.5</v>
       </c>
       <c r="Q17" t="n">
         <v>1.5</v>
       </c>
       <c r="R17" t="n">
-        <v>2.42</v>
+        <v>2.5</v>
       </c>
       <c r="S17" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="T17" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="V17" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W17" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="AA17" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>9.25</v>
+        <v>17</v>
       </c>
       <c r="AD17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AG17" t="n">
         <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AJ17" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>500</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="n">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>67</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO17" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AP17" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AQ17" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AR17" t="n">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>250</v>
+        <v>126</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU17" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
-        <v>100</v>
+        <v>67</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
         <v>12</v>
       </c>
       <c r="AY17" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AZ17" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA17" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>351</v>
+      </c>
       <c r="BB17" t="n">
-        <v>500</v>
+        <v>301</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3497,16 +3625,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
         <v>3.25</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
@@ -3533,10 +3661,10 @@
         <v>1.8</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
         <v>1.75</v>
@@ -3560,10 +3688,10 @@
         <v>23</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3572,25 +3700,25 @@
         <v>13</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
         <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK18" t="n">
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM18" t="n">
         <v>29</v>
@@ -3599,22 +3727,22 @@
         <v>4.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
       </c>
       <c r="AR18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
         <v>8</v>
@@ -3861,64 +3989,64 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.85</v>
+        <v>2.77</v>
       </c>
       <c r="H20" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J20" t="n">
         <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="M20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="S20" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="U20" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="W20" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
         <v>10.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AA20" t="n">
         <v>24</v>
@@ -3927,73 +4055,73 @@
         <v>32</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AE20" t="n">
         <v>13.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AG20" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO20" t="n">
         <v>15.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
+        <v>75</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>350</v>
+      </c>
+      <c r="AT20" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AU20" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AV20" t="n">
         <v>70</v>
       </c>
-      <c r="AR20" t="n">
-        <v>110</v>
-      </c>
-      <c r="AS20" t="n">
-        <v>300</v>
-      </c>
-      <c r="AT20" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="AU20" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV20" t="n">
-        <v>65</v>
-      </c>
       <c r="AW20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.25</v>
+        <v>4.3</v>
       </c>
       <c r="AY20" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AZ20" t="n">
         <v>21</v>
@@ -4771,46 +4899,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H25" t="n">
-        <v>5.7</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>10.75</v>
+        <v>9.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="K25" t="n">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="L25" t="n">
-        <v>8.25</v>
+        <v>7.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>5.35</v>
+        <v>4.85</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="R25" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="T25" t="n">
-        <v>3.68</v>
+        <v>3.48</v>
       </c>
       <c r="U25" t="n">
         <v>1.98</v>
@@ -4819,31 +4947,31 @@
         <v>1.65</v>
       </c>
       <c r="W25" t="n">
-        <v>8.25</v>
+        <v>7.6</v>
       </c>
       <c r="X25" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB25" t="n">
         <v>29</v>
       </c>
       <c r="AC25" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AF25" t="n">
         <v>110</v>
@@ -4852,65 +4980,65 @@
         <v>900</v>
       </c>
       <c r="AH25" t="n">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="AI25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>250</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM25" t="n">
         <v>90</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>35</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>350</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>150</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>110</v>
       </c>
       <c r="AN25" t="n">
         <v>3.1</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.1</v>
+        <v>5.4</v>
       </c>
       <c r="AP25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AR25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS25" t="n">
         <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>80</v>
       </c>
       <c r="AW25" t="inlineStr"/>
       <c r="AX25" t="n">
-        <v>10.75</v>
+        <v>9.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AZ25" t="n">
         <v>50</v>
       </c>
       <c r="BA25" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BB25" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BC25" t="inlineStr"/>
       <c r="BD25" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -765,10 +765,10 @@
         <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O2" t="n">
         <v>1.2</v>
@@ -777,10 +777,10 @@
         <v>4.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S2" t="n">
         <v>1.3</v>
@@ -1111,106 +1111,106 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I4" t="n">
-        <v>1.82</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
-        <v>4.15</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="O4" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S4" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>3.14</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC4" t="n">
         <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AF4" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>400</v>
+        <v>201</v>
       </c>
       <c r="AH4" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
         <v>21</v>
@@ -1219,41 +1219,41 @@
         <v>26</v>
       </c>
       <c r="AQ4" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>150</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>8.75</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="BA4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="BB4" t="n">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>200</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1307,10 +1307,10 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1319,25 +1319,25 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X5" t="n">
         <v>10</v>
@@ -1346,31 +1346,31 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
         <v>19</v>
       </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH5" t="n">
         <v>10</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>201</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>17</v>
@@ -1379,7 +1379,7 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
@@ -1388,25 +1388,25 @@
         <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1418,13 +1418,13 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>19</v>
       </c>
       <c r="AZ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BA5" t="n">
         <v>67</v>
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
         <v>4.75</v>
       </c>
       <c r="I6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J6" t="n">
         <v>1.95</v>
@@ -1513,13 +1513,13 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
@@ -1528,7 +1528,7 @@
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1546,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
@@ -1556,22 +1556,22 @@
         <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP6" t="n">
         <v>23</v>
@@ -1592,7 +1592,7 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
@@ -1601,16 +1601,16 @@
         <v>9.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
       </c>
       <c r="BA6" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB6" t="n">
         <v>301</v>
-      </c>
-      <c r="BB6" t="n">
-        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -1651,7 +1651,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H7" t="n">
         <v>4.1</v>
@@ -1669,10 +1669,10 @@
         <v>7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1681,10 +1681,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1693,10 +1693,10 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1717,13 +1717,13 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD7" t="n">
         <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1735,7 +1735,7 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ7" t="n">
         <v>23</v>
@@ -1750,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
         <v>7.5</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -1787,7 +1787,7 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB7" t="n">
         <v>201</v>
@@ -1829,13 +1829,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
         <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -1847,10 +1847,10 @@
         <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1883,7 +1883,7 @@
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
         <v>8.5</v>
@@ -1898,7 +1898,7 @@
         <v>8</v>
       </c>
       <c r="AD8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
@@ -1925,7 +1925,7 @@
         <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN8" t="n">
         <v>3.1</v>
@@ -2395,10 +2395,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2550,55 +2550,55 @@
         <v>4.75</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y12" t="n">
         <v>15</v>
@@ -2613,10 +2613,10 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2625,13 +2625,13 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.5</v>
@@ -2643,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
         <v>6.5</v>
@@ -2652,7 +2652,7 @@
         <v>26</v>
       </c>
       <c r="AP12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ12" t="n">
         <v>81</v>
@@ -2661,10 +2661,10 @@
         <v>101</v>
       </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2679,19 +2679,19 @@
         <v>3.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AZ12" t="n">
         <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -3093,22 +3093,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3144,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
@@ -3177,7 +3177,7 @@
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
@@ -3195,7 +3195,7 @@
         <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3223,7 +3223,7 @@
         <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3271,28 +3271,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H16" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J16" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -3313,22 +3313,22 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
         <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>8.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA16" t="n">
         <v>15</v>
@@ -3349,19 +3349,19 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3370,10 +3370,10 @@
         <v>41</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>21</v>
@@ -3394,26 +3394,26 @@
         <v>8.5</v>
       </c>
       <c r="AV16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>34</v>
       </c>
       <c r="BA16" t="n">
+        <v>81</v>
+      </c>
+      <c r="BB16" t="n">
         <v>101</v>
       </c>
-      <c r="BB16" t="n">
-        <v>126</v>
-      </c>
       <c r="BC16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3625,40 +3625,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
         <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3667,13 +3667,13 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>15</v>
@@ -3691,19 +3691,19 @@
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH18" t="n">
         <v>8</v>
@@ -3712,13 +3712,13 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>23</v>
       </c>
       <c r="AL18" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM18" t="n">
         <v>29</v>
@@ -3757,19 +3757,19 @@
         <v>4.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
         <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3992,19 +3992,19 @@
         <v>2.77</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="L20" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4013,34 +4013,34 @@
         <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U20" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="V20" t="n">
         <v>1.93</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1.98</v>
       </c>
       <c r="W20" t="n">
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y20" t="n">
         <v>10.25</v>
@@ -4058,10 +4058,10 @@
         <v>7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AF20" t="n">
         <v>65</v>
@@ -4070,70 +4070,70 @@
         <v>500</v>
       </c>
       <c r="AH20" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AR20" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AS20" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.6</v>
+        <v>2.8</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AY20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BB20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BC20" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4171,13 +4171,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="H21" t="n">
         <v>4.75</v>
       </c>
       <c r="I21" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="J21" t="n">
         <v>7.5</v>
@@ -4186,7 +4186,7 @@
         <v>2.4</v>
       </c>
       <c r="L21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="M21" t="n">
         <v>1.04</v>
@@ -4213,13 +4213,13 @@
         <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
         <v>41</v>
@@ -4237,10 +4237,10 @@
         <v>51</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
         <v>21</v>
@@ -4261,7 +4261,7 @@
         <v>8.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL21" t="n">
         <v>12</v>
@@ -4282,7 +4282,7 @@
         <v>151</v>
       </c>
       <c r="AR21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS21" t="n">
         <v>351</v>
@@ -4291,7 +4291,7 @@
         <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
         <v>2.5</v>
@@ -4368,7 +4368,7 @@
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4410,7 +4410,7 @@
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
@@ -4482,7 +4482,7 @@
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
@@ -4497,7 +4497,7 @@
         <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4535,28 +4535,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.8</v>
+        <v>2.87</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N23" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4595,7 +4595,7 @@
         <v>29</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB23" t="n">
         <v>29</v>
@@ -4625,7 +4625,7 @@
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL23" t="n">
         <v>19</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="H24" t="n">
         <v>4.33</v>
@@ -4726,31 +4726,31 @@
         <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L24" t="n">
         <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="R24" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4795,7 +4795,7 @@
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
@@ -5024,7 +5024,9 @@
       <c r="AV25" t="n">
         <v>80</v>
       </c>
-      <c r="AW25" t="inlineStr"/>
+      <c r="AW25" t="n">
+        <v>81</v>
+      </c>
       <c r="AX25" t="n">
         <v>9.75</v>
       </c>
@@ -5040,8 +5042,12 @@
       <c r="BB25" t="n">
         <v>350</v>
       </c>
-      <c r="BC25" t="inlineStr"/>
-      <c r="BD25" t="inlineStr"/>
+      <c r="BC25" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -1111,28 +1111,28 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
         <v>4</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.33</v>
-      </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O4" t="n">
         <v>1.25</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1153,16 +1153,16 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1177,10 +1177,10 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1195,10 +1195,10 @@
         <v>8</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1210,10 +1210,10 @@
         <v>23</v>
       </c>
       <c r="AN4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1231,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1241,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
         <v>34</v>
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1346,10 +1346,10 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1379,16 +1379,16 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1418,7 +1418,7 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
         <v>19</v>
@@ -1486,13 +1486,13 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1519,7 +1519,7 @@
         <v>1.5</v>
       </c>
       <c r="W6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X6" t="n">
         <v>5.5</v>
@@ -1598,7 +1598,7 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>41</v>
@@ -1651,28 +1651,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1681,10 +1681,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R7" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1693,10 +1693,10 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V7" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1708,10 +1708,10 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB7" t="n">
         <v>34</v>
@@ -1723,7 +1723,7 @@
         <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1741,25 +1741,25 @@
         <v>23</v>
       </c>
       <c r="AK7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM7" t="n">
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP7" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>21</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>23</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1778,19 +1778,19 @@
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>351</v>
@@ -1847,10 +1847,10 @@
         <v>8.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1862,7 +1862,7 @@
         <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2005,28 +2005,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="H9" t="n">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K9" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2035,10 +2035,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2047,25 +2047,25 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2074,44 +2074,44 @@
         <v>7.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>81</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AJ9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AL9" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2123,7 +2123,7 @@
         <v>2.5</v>
       </c>
       <c r="AU9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV9" t="n">
         <v>81</v>
@@ -2132,19 +2132,19 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AY9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
       </c>
       <c r="BA9" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB9" t="n">
         <v>151</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>201</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2203,13 +2203,13 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P10" t="n">
         <v>2.5</v>
@@ -2383,22 +2383,22 @@
         <v>3.5</v>
       </c>
       <c r="M11" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2565,22 +2565,22 @@
         <v>2.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2771,10 +2771,10 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="V13" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2923,7 +2923,7 @@
         <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>2.1</v>
@@ -2947,13 +2947,13 @@
         <v>2.2</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V14" t="n">
         <v>2</v>
@@ -2977,7 +2977,7 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD14" t="n">
         <v>8</v>
@@ -2986,13 +2986,13 @@
         <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
         <v>8</v>
@@ -3001,22 +3001,22 @@
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
         <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
         <v>101</v>
@@ -3028,7 +3028,7 @@
         <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
         <v>8</v>
@@ -3055,7 +3055,7 @@
         <v>41</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3271,13 +3271,13 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H16" t="n">
         <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="J16" t="n">
         <v>2.5</v>
@@ -3286,25 +3286,25 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R16" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S16" t="n">
         <v>1.44</v>
@@ -3313,31 +3313,31 @@
         <v>2.63</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z16" t="n">
         <v>15</v>
       </c>
       <c r="AA16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB16" t="n">
         <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3349,7 +3349,7 @@
         <v>51</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH16" t="n">
         <v>11</v>
@@ -3361,7 +3361,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3376,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="AP16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ16" t="n">
         <v>34</v>
@@ -3385,23 +3385,23 @@
         <v>51</v>
       </c>
       <c r="AS16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT16" t="n">
         <v>2.63</v>
       </c>
       <c r="AU16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW16" t="inlineStr"/>
       <c r="AX16" t="n">
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
         <v>34</v>
@@ -3410,10 +3410,10 @@
         <v>81</v>
       </c>
       <c r="BB16" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC16" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3625,22 +3625,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M18" t="n">
         <v>1.07</v>
@@ -3655,10 +3655,10 @@
         <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3667,10 +3667,10 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V18" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W18" t="n">
         <v>9</v>
@@ -3685,7 +3685,7 @@
         <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
         <v>34</v>
@@ -3706,13 +3706,13 @@
         <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK18" t="n">
         <v>23</v>
@@ -3754,16 +3754,16 @@
         <v>501</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ18" t="n">
         <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB18" t="n">
         <v>67</v>
@@ -4180,7 +4180,7 @@
         <v>1.36</v>
       </c>
       <c r="J21" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
         <v>2.4</v>
@@ -4189,10 +4189,10 @@
         <v>1.83</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -4216,7 +4216,7 @@
         <v>2.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
         <v>19</v>
@@ -4225,10 +4225,10 @@
         <v>41</v>
       </c>
       <c r="Y21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Z21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AA21" t="n">
         <v>51</v>
@@ -4237,7 +4237,7 @@
         <v>51</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
         <v>9.5</v>
@@ -4249,7 +4249,7 @@
         <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
         <v>2.5</v>
@@ -4368,13 +4368,13 @@
         <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -4395,10 +4395,10 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="W22" t="n">
         <v>7.5</v>
@@ -4410,7 +4410,7 @@
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
@@ -4431,7 +4431,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH22" t="n">
         <v>11</v>
@@ -4482,7 +4482,7 @@
         <v>81</v>
       </c>
       <c r="AX22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AY22" t="n">
         <v>21</v>
@@ -4497,7 +4497,7 @@
         <v>81</v>
       </c>
       <c r="BC22" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4535,7 +4535,7 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
         <v>3.3</v>
@@ -4550,7 +4550,7 @@
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M23" t="n">
         <v>1.02</v>
@@ -4577,7 +4577,7 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V23" t="n">
         <v>2.1</v>
@@ -4717,7 +4717,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>4.33</v>
@@ -4726,19 +4726,19 @@
         <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K24" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
         <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.2</v>
@@ -4747,10 +4747,10 @@
         <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.63</v>
+        <v>1.7</v>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4759,10 +4759,10 @@
         <v>3.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4908,79 +4908,79 @@
         <v>9.25</v>
       </c>
       <c r="J25" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="K25" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="L25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>14.6</v>
       </c>
       <c r="O25" t="n">
         <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T25" t="n">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="U25" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="V25" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X25" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD25" t="n">
         <v>10.75</v>
       </c>
       <c r="AE25" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
         <v>110</v>
       </c>
       <c r="AG25" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI25" t="n">
         <v>70</v>
@@ -4992,34 +4992,34 @@
         <v>250</v>
       </c>
       <c r="AL25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AM25" t="n">
         <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AO25" t="n">
         <v>5.4</v>
       </c>
       <c r="AP25" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS25" t="n">
         <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AV25" t="n">
         <v>80</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
         <v>2.88</v>
@@ -801,7 +801,7 @@
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
@@ -825,10 +825,10 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI2" t="n">
         <v>19</v>
@@ -840,7 +840,7 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>26</v>
@@ -849,7 +849,7 @@
         <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX2" t="n">
         <v>5</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -971,10 +971,10 @@
         <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W3" t="n">
         <v>17</v>
@@ -986,10 +986,10 @@
         <v>12</v>
       </c>
       <c r="Z3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -998,7 +998,7 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -1489,10 +1489,10 @@
         <v>8.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
         <v>1.36</v>
@@ -1501,10 +1501,10 @@
         <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1669,10 +1669,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1681,10 +1681,10 @@
         <v>3.25</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1702,28 +1702,28 @@
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1771,7 +1771,7 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1862,7 +1862,7 @@
         <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1871,10 +1871,10 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W8" t="n">
         <v>5</v>
@@ -1886,7 +1886,7 @@
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1895,7 +1895,7 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD8" t="n">
         <v>9</v>
@@ -1931,7 +1931,7 @@
         <v>3.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1956,10 +1956,10 @@
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
@@ -2038,7 +2038,7 @@
         <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2065,7 +2065,7 @@
         <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2111,7 +2111,7 @@
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2126,7 +2126,7 @@
         <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2203,13 +2203,13 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
         <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
         <v>2.5</v>
@@ -2365,31 +2365,31 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N11" t="n">
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2407,22 +2407,22 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
       </c>
       <c r="Y11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA11" t="n">
         <v>17</v>
@@ -2431,13 +2431,13 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2449,25 +2449,25 @@
         <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="n">
         <v>11</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM11" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN11" t="n">
         <v>4.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2497,7 +2497,7 @@
         <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ11" t="n">
         <v>23</v>
@@ -2565,22 +2565,22 @@
         <v>2.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
         <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2729,28 +2729,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
         <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2771,10 +2771,10 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
         <v>7</v>
@@ -2786,28 +2786,28 @@
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2819,7 +2819,7 @@
         <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL13" t="n">
         <v>51</v>
@@ -2828,7 +2828,7 @@
         <v>51</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
         <v>6.5</v>
@@ -2849,7 +2849,7 @@
         <v>3.25</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
@@ -2858,7 +2858,7 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
@@ -2873,7 +2873,7 @@
         <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2941,10 +2941,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -2953,7 +2953,7 @@
         <v>3.4</v>
       </c>
       <c r="U14" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V14" t="n">
         <v>2</v>
@@ -3093,22 +3093,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J15" t="n">
         <v>3.1</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -3123,10 +3123,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3144,7 +3144,7 @@
         <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
         <v>10</v>
@@ -3223,7 +3223,7 @@
         <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
         <v>21</v>
@@ -3271,28 +3271,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="H16" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="J16" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3301,16 +3301,16 @@
         <v>3</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R16" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S16" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U16" t="n">
         <v>2</v>
@@ -3319,10 +3319,10 @@
         <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -3334,10 +3334,10 @@
         <v>17</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3352,7 +3352,7 @@
         <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -3361,7 +3361,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3373,22 +3373,22 @@
         <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS16" t="n">
         <v>201</v>
       </c>
       <c r="AT16" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU16" t="n">
         <v>9</v>
@@ -3401,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>34</v>
@@ -3491,16 +3491,16 @@
         <v>3.75</v>
       </c>
       <c r="U17" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V17" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W17" t="n">
         <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
@@ -3512,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>17</v>
@@ -3548,7 +3548,7 @@
         <v>67</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO17" t="n">
         <v>5</v>
@@ -3560,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS17" t="n">
         <v>126</v>
@@ -3585,10 +3585,10 @@
         <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3625,40 +3625,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
         <v>3.1</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3667,10 +3667,10 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V18" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="W18" t="n">
         <v>9</v>
@@ -3685,19 +3685,19 @@
         <v>29</v>
       </c>
       <c r="AA18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB18" t="n">
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3706,10 +3706,10 @@
         <v>251</v>
       </c>
       <c r="AH18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ18" t="n">
         <v>9.5</v>
@@ -3769,7 +3769,7 @@
         <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3989,22 +3989,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I20" t="n">
         <v>2.4</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K20" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L20" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
@@ -4013,34 +4013,34 @@
         <v>7</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R20" t="n">
         <v>1.75</v>
       </c>
       <c r="S20" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="T20" t="n">
         <v>2.8</v>
       </c>
       <c r="U20" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="W20" t="n">
         <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
         <v>10.25</v>
@@ -4070,10 +4070,10 @@
         <v>500</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.25</v>
@@ -4082,22 +4082,22 @@
         <v>25</v>
       </c>
       <c r="AL20" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AM20" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AP20" t="n">
         <v>22</v>
       </c>
       <c r="AQ20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR20" t="n">
         <v>100</v>
@@ -4109,7 +4109,7 @@
         <v>2.8</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AV20" t="n">
         <v>60</v>
@@ -4124,13 +4124,13 @@
         <v>12.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA20" t="n">
         <v>50</v>
       </c>
       <c r="BB20" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="BC20" t="n">
         <v>250</v>
@@ -4183,7 +4183,7 @@
         <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.83</v>
@@ -4213,10 +4213,10 @@
         <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W21" t="n">
         <v>19</v>
@@ -4237,7 +4237,7 @@
         <v>51</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>9.5</v>
@@ -4249,7 +4249,7 @@
         <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
@@ -4258,7 +4258,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
         <v>8.5</v>
@@ -4309,13 +4309,13 @@
         <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
         <v>41</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD21" t="n">
         <v>126</v>
@@ -4371,10 +4371,10 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -4383,10 +4383,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4395,10 +4395,10 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
         <v>7.5</v>
@@ -4553,10 +4553,10 @@
         <v>2.88</v>
       </c>
       <c r="M23" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4577,7 +4577,7 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
         <v>2.1</v>
@@ -4735,10 +4735,10 @@
         <v>6.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.2</v>
@@ -4747,10 +4747,10 @@
         <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R24" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4759,10 +4759,10 @@
         <v>3.25</v>
       </c>
       <c r="U24" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="V24" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W24" t="n">
         <v>7.5</v>
@@ -4935,10 +4935,10 @@
         <v>2.22</v>
       </c>
       <c r="S25" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="T25" t="n">
-        <v>3.52</v>
+        <v>3.5</v>
       </c>
       <c r="U25" t="n">
         <v>1.93</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -756,7 +756,7 @@
         <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>2.3</v>
@@ -825,13 +825,13 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH2" t="n">
         <v>13</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -891,7 +891,7 @@
         <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD2" t="n">
         <v>150</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J3" t="n">
         <v>3</v>
@@ -965,10 +965,10 @@
         <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U3" t="n">
         <v>1.4</v>
@@ -980,10 +980,10 @@
         <v>17</v>
       </c>
       <c r="X3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z3" t="n">
         <v>29</v>
@@ -1046,7 +1046,7 @@
         <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
         <v>6.5</v>
@@ -1061,7 +1061,7 @@
         <v>5</v>
       </c>
       <c r="AY3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>17</v>
@@ -1141,25 +1141,25 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S4" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V4" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
         <v>5.5</v>
@@ -1225,13 +1225,13 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1253,7 +1253,7 @@
         <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1346,10 +1346,10 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
         <v>19</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1379,16 +1379,16 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1418,7 +1418,7 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY5" t="n">
         <v>19</v>
@@ -1474,7 +1474,7 @@
         <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
@@ -1501,10 +1501,10 @@
         <v>3.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1525,7 +1525,7 @@
         <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z6" t="n">
         <v>8.5</v>
@@ -1651,13 +1651,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H7" t="n">
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1669,10 +1669,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1699,22 +1699,22 @@
         <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
         <v>5.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
@@ -1726,19 +1726,19 @@
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>1250</v>
       </c>
       <c r="AH7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
       </c>
       <c r="AJ7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK7" t="n">
         <v>101</v>
@@ -1750,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -1859,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -2035,10 +2035,10 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2365,13 +2365,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J11" t="n">
         <v>3</v>
@@ -2380,7 +2380,7 @@
         <v>2.25</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2395,10 +2395,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2413,10 +2413,10 @@
         <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
         <v>9.5</v>
@@ -2425,13 +2425,13 @@
         <v>23</v>
       </c>
       <c r="AA11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB11" t="n">
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2452,7 +2452,7 @@
         <v>15</v>
       </c>
       <c r="AJ11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK11" t="n">
         <v>29</v>
@@ -2500,7 +2500,7 @@
         <v>15</v>
       </c>
       <c r="AZ11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
@@ -2568,7 +2568,7 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.22</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
         <v>7.5</v>
@@ -2750,7 +2750,7 @@
         <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O13" t="n">
         <v>1.22</v>
@@ -2783,7 +2783,7 @@
         <v>6.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z13" t="n">
         <v>8.5</v>
@@ -2795,10 +2795,10 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2807,7 +2807,7 @@
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2816,7 +2816,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
@@ -2941,10 +2941,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -3093,40 +3093,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H15" t="n">
         <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3150,13 +3150,13 @@
         <v>10</v>
       </c>
       <c r="Z15" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="n">
         <v>26</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>23</v>
       </c>
       <c r="AC15" t="n">
         <v>13</v>
@@ -3177,13 +3177,13 @@
         <v>11</v>
       </c>
       <c r="AI15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ15" t="n">
         <v>10</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>19</v>
@@ -3192,10 +3192,10 @@
         <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>21</v>
@@ -3271,22 +3271,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J16" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -3319,10 +3319,10 @@
         <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
@@ -3337,7 +3337,7 @@
         <v>34</v>
       </c>
       <c r="AC16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD16" t="n">
         <v>6.5</v>
@@ -3346,13 +3346,13 @@
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
         <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -3361,7 +3361,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3373,13 +3373,13 @@
         <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3401,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ16" t="n">
         <v>34</v>
@@ -3625,40 +3625,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H18" t="n">
         <v>3.2</v>
       </c>
       <c r="I18" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="J18" t="n">
         <v>3.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L18" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M18" t="n">
         <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3676,7 +3676,7 @@
         <v>9</v>
       </c>
       <c r="X18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
         <v>11</v>
@@ -3691,13 +3691,13 @@
         <v>34</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>51</v>
@@ -3712,7 +3712,7 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK18" t="n">
         <v>23</v>
@@ -3754,22 +3754,22 @@
         <v>501</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AY18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
         <v>23</v>
       </c>
       <c r="BA18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB18" t="n">
         <v>67</v>
       </c>
       <c r="BC18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BD18" t="n">
         <v>126</v>
@@ -3989,13 +3989,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="H20" t="n">
         <v>3.25</v>
       </c>
       <c r="I20" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J20" t="n">
         <v>3.35</v>
@@ -4004,49 +4004,49 @@
         <v>2.12</v>
       </c>
       <c r="L20" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="T20" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="V20" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="X20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="Y20" t="n">
         <v>10.25</v>
       </c>
       <c r="Z20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA20" t="n">
         <v>24</v>
@@ -4055,10 +4055,10 @@
         <v>32</v>
       </c>
       <c r="AC20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE20" t="n">
         <v>14</v>
@@ -4070,22 +4070,22 @@
         <v>500</v>
       </c>
       <c r="AH20" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AI20" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL20" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AM20" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN20" t="n">
         <v>4.8</v>
@@ -4106,7 +4106,7 @@
         <v>250</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="AU20" t="n">
         <v>6.9</v>
@@ -4124,13 +4124,13 @@
         <v>12.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA20" t="n">
         <v>50</v>
       </c>
       <c r="BB20" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BC20" t="n">
         <v>250</v>
@@ -4201,10 +4201,10 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
         <v>1.33</v>
@@ -4353,13 +4353,13 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="J22" t="n">
         <v>2.5</v>
@@ -4383,10 +4383,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4395,10 +4395,10 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
         <v>7.5</v>
@@ -4425,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
@@ -4449,7 +4449,7 @@
         <v>29</v>
       </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
         <v>4</v>
@@ -4535,13 +4535,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -4577,10 +4577,10 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
         <v>10</v>
@@ -4616,13 +4616,13 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4637,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4667,7 +4667,7 @@
         <v>4.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
@@ -4899,46 +4899,46 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="H25" t="n">
         <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="J25" t="n">
         <v>1.65</v>
       </c>
       <c r="K25" t="n">
-        <v>2.6</v>
+        <v>2.57</v>
       </c>
       <c r="L25" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P25" t="n">
-        <v>4.9</v>
+        <v>5.05</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S25" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="T25" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="U25" t="n">
         <v>1.93</v>
@@ -4950,16 +4950,16 @@
         <v>7.8</v>
       </c>
       <c r="X25" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="Y25" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB25" t="n">
         <v>28</v>
@@ -4968,7 +4968,7 @@
         <v>15</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4980,16 +4980,16 @@
         <v>800</v>
       </c>
       <c r="AH25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI25" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK25" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AL25" t="n">
         <v>120</v>
@@ -4998,10 +4998,10 @@
         <v>90</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="AP25" t="n">
         <v>15</v>
@@ -5028,13 +5028,13 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AY25" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AZ25" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA25" t="n">
         <v>400</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -747,61 +747,61 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H2" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="J2" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>3.25</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N2" t="n">
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="P2" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R2" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="n">
         <v>26</v>
@@ -813,10 +813,10 @@
         <v>23</v>
       </c>
       <c r="AC2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -828,10 +828,10 @@
         <v>126</v>
       </c>
       <c r="AH2" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -849,10 +849,10 @@
         <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -864,7 +864,7 @@
         <v>101</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
         <v>5</v>
@@ -882,7 +882,7 @@
         <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
         <v>41</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J3" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -965,16 +965,16 @@
         <v>2.75</v>
       </c>
       <c r="S3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W3" t="n">
         <v>17</v>
@@ -995,10 +995,10 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>11</v>
@@ -1013,13 +1013,13 @@
         <v>17</v>
       </c>
       <c r="AI3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL3" t="n">
         <v>19</v>
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>17</v>
@@ -1046,7 +1046,7 @@
         <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU3" t="n">
         <v>6.5</v>
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -1135,16 +1135,16 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R4" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.88</v>
@@ -1319,10 +1319,10 @@
         <v>3.4</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1346,10 +1346,10 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>29</v>
@@ -1379,16 +1379,16 @@
         <v>12</v>
       </c>
       <c r="AK5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="n">
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO5" t="n">
         <v>12</v>
@@ -1418,7 +1418,7 @@
         <v>126</v>
       </c>
       <c r="AX5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY5" t="n">
         <v>19</v>
@@ -1489,22 +1489,22 @@
         <v>8.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1657,7 +1657,7 @@
         <v>4.2</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -1699,10 +1699,10 @@
         <v>1.53</v>
       </c>
       <c r="W7" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
@@ -1726,7 +1726,7 @@
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>1250</v>
@@ -1750,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
         <v>3.5</v>
       </c>
       <c r="I9" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J9" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
         <v>2.05</v>
       </c>
       <c r="L9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2047,10 +2047,10 @@
         <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
@@ -2062,10 +2062,10 @@
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2080,17 +2080,17 @@
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
         <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2105,13 +2105,13 @@
         <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
         <v>23</v>
       </c>
       <c r="AQ9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
         <v>51</v>
@@ -2132,10 +2132,10 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2395,10 +2395,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2559,28 +2559,28 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
         <v>2.25</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2589,13 +2589,13 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X12" t="n">
         <v>26</v>
@@ -2613,7 +2613,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD12" t="n">
         <v>7.5</v>
@@ -2625,13 +2625,13 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
         <v>7.5</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.5</v>
@@ -2643,7 +2643,7 @@
         <v>13</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
         <v>6.5</v>
@@ -2652,7 +2652,7 @@
         <v>26</v>
       </c>
       <c r="AP12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ12" t="n">
         <v>81</v>
@@ -2685,10 +2685,10 @@
         <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC12" t="n">
         <v>126</v>
@@ -2729,10 +2729,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I13" t="n">
         <v>7.5</v>
@@ -2747,22 +2747,22 @@
         <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2795,10 +2795,10 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2807,7 +2807,7 @@
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2816,7 +2816,7 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
@@ -2852,7 +2852,7 @@
         <v>9.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW13" t="n">
         <v>81</v>
@@ -2870,7 +2870,7 @@
         <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>351</v>
@@ -2941,10 +2941,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>1.3</v>
@@ -3093,13 +3093,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="J15" t="n">
         <v>3.25</v>
@@ -3108,7 +3108,7 @@
         <v>2.3</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
         <v>1.03</v>
@@ -3123,31 +3123,31 @@
         <v>4.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S15" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W15" t="n">
+        <v>12</v>
+      </c>
+      <c r="X15" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y15" t="n">
         <v>11</v>
-      </c>
-      <c r="X15" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>29</v>
@@ -3156,10 +3156,10 @@
         <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
@@ -3180,13 +3180,13 @@
         <v>13</v>
       </c>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM15" t="n">
         <v>23</v>
@@ -3210,10 +3210,10 @@
         <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV15" t="n">
         <v>41</v>
@@ -3223,10 +3223,10 @@
         <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA15" t="n">
         <v>41</v>
@@ -3235,7 +3235,7 @@
         <v>51</v>
       </c>
       <c r="BC15" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
@@ -3455,7 +3455,7 @@
         <v>6.5</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
         <v>1.57</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O17" t="n">
         <v>1.14</v>
@@ -3500,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
@@ -3512,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
         <v>17</v>
@@ -3530,25 +3530,25 @@
         <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="n">
         <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM17" t="n">
         <v>81</v>
       </c>
-      <c r="AM17" t="n">
-        <v>67</v>
-      </c>
       <c r="AN17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO17" t="n">
         <v>5</v>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>51</v>
@@ -3585,10 +3585,10 @@
         <v>51</v>
       </c>
       <c r="BA17" t="n">
+        <v>351</v>
+      </c>
+      <c r="BB17" t="n">
         <v>301</v>
-      </c>
-      <c r="BB17" t="n">
-        <v>251</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3625,73 +3625,73 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H18" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I18" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K18" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>3.2</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="R18" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U18" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.8</v>
       </c>
-      <c r="V18" t="n">
-        <v>1.95</v>
-      </c>
       <c r="W18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>6</v>
@@ -3703,13 +3703,13 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AI18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ18" t="n">
         <v>10</v>
@@ -3721,7 +3721,7 @@
         <v>21</v>
       </c>
       <c r="AM18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN18" t="n">
         <v>4.75</v>
@@ -3730,7 +3730,7 @@
         <v>17</v>
       </c>
       <c r="AP18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ18" t="n">
         <v>51</v>
@@ -3739,34 +3739,34 @@
         <v>81</v>
       </c>
       <c r="AS18" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
         <v>501</v>
       </c>
       <c r="AX18" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AY18" t="n">
         <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA18" t="n">
         <v>51</v>
       </c>
       <c r="BB18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BC18" t="n">
         <v>201</v>
@@ -3992,25 +3992,25 @@
         <v>2.85</v>
       </c>
       <c r="H20" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I20" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J20" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K20" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L20" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M20" t="n">
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O20" t="n">
         <v>1.34</v>
@@ -4025,22 +4025,22 @@
         <v>1.72</v>
       </c>
       <c r="S20" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="T20" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="U20" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="V20" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="W20" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="X20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="Y20" t="n">
         <v>10.25</v>
@@ -4049,19 +4049,19 @@
         <v>35</v>
       </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB20" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC20" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AF20" t="n">
         <v>65</v>
@@ -4070,16 +4070,16 @@
         <v>500</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AI20" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ20" t="n">
         <v>9.25</v>
       </c>
       <c r="AK20" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL20" t="n">
         <v>20</v>
@@ -4091,22 +4091,22 @@
         <v>4.8</v>
       </c>
       <c r="AO20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AR20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="AU20" t="n">
         <v>6.9</v>
@@ -4115,7 +4115,7 @@
         <v>60</v>
       </c>
       <c r="AW20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AX20" t="n">
         <v>4.35</v>
@@ -4127,7 +4127,7 @@
         <v>20</v>
       </c>
       <c r="BA20" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BB20" t="n">
         <v>80</v>
@@ -4171,13 +4171,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="J21" t="n">
         <v>8</v>
@@ -4213,13 +4213,13 @@
         <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
         <v>41</v>
@@ -4258,7 +4258,7 @@
         <v>6.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
         <v>8.5</v>
@@ -4270,7 +4270,7 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
@@ -4279,7 +4279,7 @@
         <v>41</v>
       </c>
       <c r="AQ21" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR21" t="n">
         <v>201</v>
@@ -4315,7 +4315,7 @@
         <v>41</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
         <v>126</v>
@@ -4535,13 +4535,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="H23" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -4577,10 +4577,10 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
         <v>10</v>
@@ -4616,13 +4616,13 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4637,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4667,7 +4667,7 @@
         <v>4.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
@@ -4899,82 +4899,82 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
         <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="J25" t="n">
         <v>1.65</v>
       </c>
       <c r="K25" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="L25" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="M25" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>14.7</v>
+        <v>16.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>5.05</v>
+        <v>4.7</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="S25" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>3.55</v>
+        <v>3.42</v>
       </c>
       <c r="U25" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="W25" t="n">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="X25" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.6</v>
+        <v>7.3</v>
       </c>
       <c r="AA25" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>30</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>14</v>
+      </c>
+      <c r="AD25" t="n">
         <v>10.75</v>
       </c>
-      <c r="AB25" t="n">
-        <v>28</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>11</v>
-      </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="n">
         <v>800</v>
@@ -4983,64 +4983,64 @@
         <v>27</v>
       </c>
       <c r="AI25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AJ25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AK25" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AL25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AM25" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO25" t="n">
         <v>5.3</v>
       </c>
       <c r="AP25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ25" t="n">
         <v>13</v>
       </c>
       <c r="AR25" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AS25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="AV25" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AW25" t="n">
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AY25" t="n">
+        <v>60</v>
+      </c>
+      <c r="AZ25" t="n">
         <v>55</v>
       </c>
-      <c r="AZ25" t="n">
-        <v>45</v>
-      </c>
       <c r="BA25" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BB25" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -747,31 +747,31 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>15</v>
       </c>
       <c r="O2" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P2" t="n">
         <v>5</v>
@@ -804,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="Z2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
@@ -819,10 +819,10 @@
         <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG2" t="n">
         <v>126</v>
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -840,25 +840,25 @@
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM2" t="n">
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR2" t="n">
         <v>41</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -873,19 +873,19 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB2" t="n">
         <v>51</v>
@@ -894,7 +894,7 @@
         <v>101</v>
       </c>
       <c r="BD2" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3">
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -959,10 +959,10 @@
         <v>6</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="S3" t="n">
         <v>1.22</v>
@@ -1010,7 +1010,7 @@
         <v>81</v>
       </c>
       <c r="AH3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI3" t="n">
         <v>21</v>
@@ -1022,7 +1022,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM3" t="n">
         <v>21</v>
@@ -1034,10 +1034,10 @@
         <v>12</v>
       </c>
       <c r="AP3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>41</v>
@@ -1055,10 +1055,10 @@
         <v>34</v>
       </c>
       <c r="AW3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX3" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AY3" t="n">
         <v>13</v>
@@ -1114,7 +1114,7 @@
         <v>3.7</v>
       </c>
       <c r="H4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I4" t="n">
         <v>2</v>
@@ -1135,22 +1135,22 @@
         <v>11</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R4" t="n">
         <v>1.95</v>
       </c>
-      <c r="R4" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S4" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U4" t="n">
         <v>1.73</v>
@@ -1159,7 +1159,7 @@
         <v>2</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -1225,10 +1225,10 @@
         <v>81</v>
       </c>
       <c r="AS4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1307,28 +1307,28 @@
         <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.73</v>
+        <v>1.9</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1340,7 +1340,7 @@
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1352,13 +1352,13 @@
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1370,13 +1370,13 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1385,28 +1385,28 @@
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1421,7 +1421,7 @@
         <v>5.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>29</v>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I6" t="n">
         <v>8</v>
       </c>
       <c r="J6" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1501,22 +1501,22 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.5</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1525,7 +1525,7 @@
         <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z6" t="n">
         <v>8.5</v>
@@ -1537,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>9</v>
@@ -1546,11 +1546,11 @@
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
@@ -1565,7 +1565,7 @@
         <v>67</v>
       </c>
       <c r="AM6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN6" t="n">
         <v>3.1</v>
@@ -1574,10 +1574,10 @@
         <v>7</v>
       </c>
       <c r="AP6" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ6" t="n">
-        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1586,13 +1586,13 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
@@ -1610,7 +1610,7 @@
         <v>251</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -1669,10 +1669,10 @@
         <v>8</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -2005,64 +2005,64 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S9" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V9" t="n">
         <v>1.62</v>
-      </c>
-      <c r="S9" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U9" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA9" t="n">
         <v>17</v>
@@ -2071,23 +2071,23 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
         <v>17</v>
@@ -2102,31 +2102,31 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>34</v>
       </c>
       <c r="AR9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2141,13 +2141,13 @@
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
       </c>
       <c r="BC9" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD9" t="n">
         <v>126</v>
@@ -2185,16 +2185,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
         <v>1.95</v>
@@ -2203,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2215,10 +2215,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2227,16 +2227,16 @@
         <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
         <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2245,47 +2245,47 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
         <v>81</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2297,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2312,7 +2312,7 @@
         <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2321,7 +2321,7 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2377,10 +2377,10 @@
         <v>3</v>
       </c>
       <c r="K11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2395,10 +2395,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2413,7 +2413,7 @@
         <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -2428,7 +2428,7 @@
         <v>19</v>
       </c>
       <c r="AB11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC11" t="n">
         <v>12</v>
@@ -2437,7 +2437,7 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2446,7 +2446,7 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>15</v>
@@ -2732,61 +2732,61 @@
         <v>1.33</v>
       </c>
       <c r="H13" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
         <v>1.83</v>
       </c>
       <c r="K13" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="S13" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T13" t="n">
+        <v>3</v>
+      </c>
+      <c r="U13" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V13" t="n">
         <v>1.67</v>
       </c>
-      <c r="R13" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S13" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T13" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U13" t="n">
-        <v>2</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y13" t="n">
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -2795,19 +2795,19 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG13" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2816,19 +2816,19 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO13" t="n">
         <v>6.5</v>
@@ -2843,13 +2843,13 @@
         <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
@@ -2858,7 +2858,7 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
@@ -2867,13 +2867,13 @@
         <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB13" t="n">
         <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>351</v>
+        <v>451</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2911,10 +2911,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>1.53</v>
@@ -2923,52 +2923,52 @@
         <v>5.5</v>
       </c>
       <c r="K14" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L14" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N14" t="n">
+        <v>12</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R14" t="n">
         <v>2.1</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N14" t="n">
-        <v>15</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="R14" t="n">
-        <v>2.15</v>
-      </c>
       <c r="S14" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
         <v>17</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA14" t="n">
         <v>41</v>
@@ -2977,7 +2977,7 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD14" t="n">
         <v>8</v>
@@ -2986,52 +2986,52 @@
         <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG14" t="n">
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL14" t="n">
         <v>12</v>
       </c>
       <c r="AM14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO14" t="n">
         <v>29</v>
       </c>
       <c r="AP14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ14" t="n">
         <v>101</v>
       </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS14" t="n">
         <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
@@ -3055,7 +3055,7 @@
         <v>41</v>
       </c>
       <c r="BC14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>2.3</v>
@@ -3117,16 +3117,16 @@
         <v>15</v>
       </c>
       <c r="O15" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3156,7 +3156,7 @@
         <v>21</v>
       </c>
       <c r="AB15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC15" t="n">
         <v>15</v>
@@ -3174,7 +3174,7 @@
         <v>126</v>
       </c>
       <c r="AH15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3183,13 +3183,13 @@
         <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>17</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN15" t="n">
         <v>5</v>
@@ -3201,7 +3201,7 @@
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY15" t="n">
         <v>12</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
         <v>1.14</v>
@@ -3989,151 +3989,151 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.85</v>
+        <v>2.55</v>
       </c>
       <c r="H20" t="n">
+        <v>3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="J20" t="n">
         <v>3.15</v>
       </c>
-      <c r="I20" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.45</v>
-      </c>
       <c r="K20" t="n">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="L20" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>6.7</v>
+        <v>6.1</v>
       </c>
       <c r="O20" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>2.7</v>
       </c>
       <c r="Q20" t="n">
-        <v>2</v>
+        <v>2.18</v>
       </c>
       <c r="R20" t="n">
-        <v>1.72</v>
+        <v>1.6</v>
       </c>
       <c r="S20" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="T20" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="U20" t="n">
-        <v>1.75</v>
+        <v>1.87</v>
       </c>
       <c r="V20" t="n">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="W20" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="X20" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>28</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>80</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>700</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>37</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO20" t="n">
         <v>14</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>500</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>30</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="AO20" t="n">
-        <v>15.5</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AR20" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS20" t="n">
         <v>300</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.67</v>
+        <v>2.57</v>
       </c>
       <c r="AU20" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.35</v>
+        <v>4.65</v>
       </c>
       <c r="AY20" t="n">
-        <v>12.5</v>
+        <v>15.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BB20" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="BC20" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4174,7 +4174,7 @@
         <v>8.5</v>
       </c>
       <c r="H21" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I21" t="n">
         <v>1.33</v>
@@ -4183,16 +4183,16 @@
         <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.83</v>
       </c>
       <c r="M21" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N21" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -4201,61 +4201,61 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="R21" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T21" t="n">
+        <v>3</v>
+      </c>
+      <c r="U21" t="n">
         <v>2.1</v>
       </c>
-      <c r="S21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U21" t="n">
-        <v>2.05</v>
-      </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="X21" t="n">
         <v>41</v>
       </c>
       <c r="Y21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z21" t="n">
         <v>101</v>
       </c>
       <c r="AA21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AB21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
         <v>9.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG21" t="n">
-        <v>401</v>
+        <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
         <v>8.5</v>
@@ -4285,10 +4285,10 @@
         <v>201</v>
       </c>
       <c r="AS21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU21" t="n">
         <v>9.5</v>
@@ -4300,7 +4300,7 @@
         <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AY21" t="n">
         <v>6.5</v>
@@ -4309,7 +4309,7 @@
         <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BB21" t="n">
         <v>41</v>
@@ -4353,28 +4353,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K22" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L22" t="n">
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N22" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -4383,10 +4383,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4395,10 +4395,10 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W22" t="n">
         <v>7.5</v>
@@ -4425,19 +4425,19 @@
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI22" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ22" t="n">
         <v>13</v>
@@ -4446,7 +4446,7 @@
         <v>41</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4455,7 +4455,7 @@
         <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
@@ -4494,7 +4494,7 @@
         <v>67</v>
       </c>
       <c r="BB22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC22" t="n">
         <v>400</v>
@@ -4535,13 +4535,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J23" t="n">
         <v>3.4</v>
@@ -4577,10 +4577,10 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W23" t="n">
         <v>10</v>
@@ -4616,13 +4616,13 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK23" t="n">
         <v>21</v>
@@ -4637,7 +4637,7 @@
         <v>5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP23" t="n">
         <v>23</v>
@@ -4667,7 +4667,7 @@
         <v>4.5</v>
       </c>
       <c r="AY23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
@@ -4720,7 +4720,7 @@
         <v>1.4</v>
       </c>
       <c r="H24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I24" t="n">
         <v>6.5</v>
@@ -4729,7 +4729,7 @@
         <v>1.91</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
         <v>6.5</v>
@@ -4783,7 +4783,7 @@
         <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD24" t="n">
         <v>9</v>
@@ -4822,7 +4822,7 @@
         <v>7</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>19</v>
@@ -4846,7 +4846,7 @@
         <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY24" t="n">
         <v>34</v>
@@ -4899,79 +4899,79 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="H25" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="I25" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K25" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="L25" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="O25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P25" t="n">
-        <v>4.7</v>
+        <v>4.85</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R25" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T25" t="n">
-        <v>3.42</v>
+        <v>3.48</v>
       </c>
       <c r="U25" t="n">
         <v>2.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X25" t="n">
         <v>6</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.3</v>
+        <v>7.1</v>
       </c>
       <c r="AA25" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB25" t="n">
         <v>30</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
         <v>120</v>
@@ -4980,16 +4980,16 @@
         <v>800</v>
       </c>
       <c r="AH25" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AI25" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AJ25" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AK25" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AL25" t="n">
         <v>150</v>
@@ -5001,22 +5001,22 @@
         <v>3.05</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="AP25" t="n">
         <v>16</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AR25" t="n">
         <v>40</v>
       </c>
       <c r="AS25" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU25" t="n">
         <v>9.25</v>
@@ -5028,10 +5028,10 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AY25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AZ25" t="n">
         <v>55</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -759,7 +759,7 @@
         <v>2.75</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
         <v>3.4</v>
@@ -795,7 +795,7 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
@@ -810,7 +810,7 @@
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC2" t="n">
         <v>17</v>
@@ -819,10 +819,10 @@
         <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG2" t="n">
         <v>126</v>
@@ -855,10 +855,10 @@
         <v>17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>101</v>
@@ -873,7 +873,7 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AX2" t="n">
         <v>5.5</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -947,10 +947,10 @@
         <v>3.1</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
         <v>1.13</v>
@@ -986,10 +986,10 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="AW3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AX3" t="n">
         <v>5.5</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.5</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>26</v>
@@ -1319,10 +1319,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
         <v>2.25</v>
@@ -1832,25 +1832,25 @@
         <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N8" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1898,13 +1898,13 @@
         <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="n">
         <v>101</v>
@@ -1916,19 +1916,19 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="n">
         <v>81</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>6.5</v>
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
@@ -1965,10 +1965,10 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="H9" t="n">
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M9" t="n">
         <v>1.1</v>
@@ -2035,10 +2035,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
         <v>1.53</v>
@@ -2065,7 +2065,7 @@
         <v>15</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI9" t="n">
         <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2105,13 +2105,13 @@
         <v>3.6</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2132,10 +2132,10 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
@@ -2185,16 +2185,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H10" t="n">
         <v>3.25</v>
       </c>
       <c r="I10" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
         <v>1.95</v>
@@ -2203,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
         <v>1.5</v>
@@ -2215,10 +2215,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2227,16 +2227,16 @@
         <v>2.25</v>
       </c>
       <c r="U10" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V10" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W10" t="n">
         <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2245,19 +2245,19 @@
         <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
         <v>81</v>
@@ -2270,22 +2270,22 @@
         <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>26</v>
@@ -2297,7 +2297,7 @@
         <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
         <v>2.25</v>
@@ -2312,7 +2312,7 @@
         <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AY10" t="n">
         <v>34</v>
@@ -2321,7 +2321,7 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2571,16 +2571,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2759,10 +2759,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2786,7 +2786,7 @@
         <v>9</v>
       </c>
       <c r="Z13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -2804,10 +2804,10 @@
         <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH13" t="n">
         <v>19</v>
@@ -2816,16 +2816,16 @@
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
         <v>101</v>
       </c>
       <c r="AL13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN13" t="n">
         <v>3.2</v>
@@ -2849,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
@@ -2858,7 +2858,7 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
@@ -2873,7 +2873,7 @@
         <v>201</v>
       </c>
       <c r="BC13" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2932,7 +2932,7 @@
         <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>1.22</v>
@@ -3455,7 +3455,7 @@
         <v>6.5</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
         <v>1.57</v>
@@ -3500,7 +3500,7 @@
         <v>8</v>
       </c>
       <c r="X17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
@@ -3512,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>17</v>
@@ -3530,25 +3530,25 @@
         <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ17" t="n">
         <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AO17" t="n">
         <v>5</v>
@@ -3576,7 +3576,7 @@
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY17" t="n">
         <v>51</v>
@@ -3585,10 +3585,10 @@
         <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BB17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3989,151 +3989,151 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="P20" t="n">
         <v>2.55</v>
       </c>
-      <c r="H20" t="n">
-        <v>3</v>
-      </c>
-      <c r="I20" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.7</v>
-      </c>
       <c r="Q20" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="R20" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="U20" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="V20" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="X20" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="Z20" t="n">
+        <v>30</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>40</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>16</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>900</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL20" t="n">
         <v>28</v>
       </c>
-      <c r="AA20" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>37</v>
-      </c>
-      <c r="AC20" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>80</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>35</v>
-      </c>
-      <c r="AL20" t="n">
-        <v>26</v>
-      </c>
       <c r="AM20" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN20" t="n">
         <v>4.4</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AR20" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS20" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.57</v>
+        <v>2.42</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="AV20" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AW20" t="n">
         <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.65</v>
+        <v>4.6</v>
       </c>
       <c r="AY20" t="n">
         <v>15.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="BA20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC20" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4899,19 +4899,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="H25" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I25" t="n">
         <v>11</v>
       </c>
       <c r="J25" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="K25" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="L25" t="n">
         <v>8.5</v>
@@ -4920,25 +4920,25 @@
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O25" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P25" t="n">
-        <v>4.85</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.52</v>
+        <v>1.57</v>
       </c>
       <c r="R25" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="S25" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="T25" t="n">
-        <v>3.48</v>
+        <v>3.4</v>
       </c>
       <c r="U25" t="n">
         <v>2.05</v>
@@ -4947,40 +4947,40 @@
         <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB25" t="n">
         <v>30</v>
       </c>
       <c r="AC25" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF25" t="n">
         <v>120</v>
       </c>
       <c r="AG25" t="n">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AI25" t="n">
         <v>90</v>
@@ -4998,28 +4998,28 @@
         <v>110</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="AP25" t="n">
         <v>16</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AR25" t="n">
         <v>40</v>
       </c>
       <c r="AS25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -986,10 +986,10 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB3" t="n">
         <v>21</v>
@@ -1055,7 +1055,7 @@
         <v>34</v>
       </c>
       <c r="AW3" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AX3" t="n">
         <v>5.5</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R4" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1319,10 +1319,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.01</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1331,16 +1331,16 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1367,7 +1367,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1421,7 +1421,7 @@
         <v>5.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ5" t="n">
         <v>29</v>
@@ -1495,10 +1495,10 @@
         <v>9</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.25</v>
@@ -1651,16 +1651,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H7" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I7" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
@@ -1693,28 +1693,28 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
         <v>8.5</v>
@@ -1726,13 +1726,13 @@
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="n">
         <v>1250</v>
       </c>
       <c r="AH7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI7" t="n">
         <v>41</v>
@@ -1750,7 +1750,7 @@
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO7" t="n">
         <v>7</v>
@@ -1778,7 +1778,7 @@
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="M8" t="n">
         <v>1.07</v>
@@ -1898,13 +1898,13 @@
         <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="n">
         <v>101</v>
@@ -1916,19 +1916,19 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="n">
         <v>81</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO8" t="n">
         <v>6.5</v>
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
@@ -1965,10 +1965,10 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB8" t="n">
         <v>301</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2023,10 +2023,10 @@
         <v>5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2035,10 +2035,10 @@
         <v>2.63</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S9" t="n">
         <v>1.53</v>
@@ -2215,10 +2215,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2547,16 +2547,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
         <v>3.7</v>
       </c>
       <c r="I12" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
@@ -2571,16 +2571,16 @@
         <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2589,10 +2589,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
@@ -2601,7 +2601,7 @@
         <v>26</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z12" t="n">
         <v>51</v>
@@ -2619,25 +2619,25 @@
         <v>7.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF12" t="n">
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI12" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>8</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
@@ -2646,28 +2646,28 @@
         <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP12" t="n">
         <v>34</v>
       </c>
       <c r="AQ12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2676,7 +2676,7 @@
         <v>501</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AY12" t="n">
         <v>8.5</v>
@@ -2685,13 +2685,13 @@
         <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BB12" t="n">
         <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2747,22 +2747,22 @@
         <v>8</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2795,13 +2795,13 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
         <v>9</v>
       </c>
       <c r="AE13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF13" t="n">
         <v>67</v>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
       </c>
       <c r="I14" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="J14" t="n">
         <v>5.5</v>
@@ -2926,7 +2926,7 @@
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2962,7 +2962,7 @@
         <v>17</v>
       </c>
       <c r="X14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Y14" t="n">
         <v>19</v>
@@ -2977,7 +2977,7 @@
         <v>41</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD14" t="n">
         <v>8</v>
@@ -2992,10 +2992,10 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
@@ -3022,7 +3022,7 @@
         <v>101</v>
       </c>
       <c r="AR14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
         <v>201</v>
@@ -3123,10 +3123,10 @@
         <v>4.33</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S15" t="n">
         <v>1.3</v>
@@ -3271,28 +3271,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H16" t="n">
         <v>3.1</v>
       </c>
       <c r="I16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K16" t="n">
         <v>2.05</v>
       </c>
       <c r="L16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -3319,16 +3319,16 @@
         <v>1.73</v>
       </c>
       <c r="W16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>9</v>
       </c>
       <c r="Z16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA16" t="n">
         <v>17</v>
@@ -3340,19 +3340,19 @@
         <v>7.5</v>
       </c>
       <c r="AD16" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE16" t="n">
         <v>17</v>
       </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
         <v>351</v>
       </c>
       <c r="AH16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI16" t="n">
         <v>21</v>
@@ -3361,7 +3361,7 @@
         <v>15</v>
       </c>
       <c r="AK16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="n">
         <v>41</v>
@@ -3373,13 +3373,13 @@
         <v>3.75</v>
       </c>
       <c r="AO16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP16" t="n">
         <v>23</v>
       </c>
       <c r="AQ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR16" t="n">
         <v>67</v>
@@ -3401,7 +3401,7 @@
         <v>6</v>
       </c>
       <c r="AY16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ16" t="n">
         <v>34</v>
@@ -3467,10 +3467,10 @@
         <v>11</v>
       </c>
       <c r="M17" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O17" t="n">
         <v>1.14</v>
@@ -3497,7 +3497,7 @@
         <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X17" t="n">
         <v>6.5</v>
@@ -3512,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
         <v>17</v>
@@ -3530,7 +3530,7 @@
         <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
@@ -3588,7 +3588,7 @@
         <v>301</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3989,58 +3989,58 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="H20" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I20" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J20" t="n">
         <v>3.25</v>
       </c>
       <c r="K20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M20" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S20" t="n">
         <v>1.45</v>
       </c>
-      <c r="P20" t="n">
+      <c r="T20" t="n">
         <v>2.55</v>
       </c>
-      <c r="Q20" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.42</v>
-      </c>
       <c r="U20" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="W20" t="n">
-        <v>6.9</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y20" t="n">
         <v>10</v>
@@ -4052,49 +4052,49 @@
         <v>25</v>
       </c>
       <c r="AB20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD20" t="n">
         <v>5.7</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AG20" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AI20" t="n">
         <v>13</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
         <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AO20" t="n">
         <v>14.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>65</v>
@@ -4103,37 +4103,37 @@
         <v>110</v>
       </c>
       <c r="AS20" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.42</v>
+        <v>2.55</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AV20" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AW20" t="n">
         <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AY20" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ20" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BA20" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BC20" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4371,10 +4371,10 @@
         <v>4.33</v>
       </c>
       <c r="M22" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N22" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.29</v>
@@ -4383,10 +4383,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4565,10 +4565,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4717,16 +4717,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H24" t="n">
         <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K24" t="n">
         <v>2.4</v>
@@ -4774,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA24" t="n">
         <v>12</v>
@@ -4786,10 +4786,10 @@
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
@@ -4801,13 +4801,13 @@
         <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="n">
         <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL24" t="n">
         <v>51</v>
@@ -4819,13 +4819,13 @@
         <v>3.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP24" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>17</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>19</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4855,7 +4855,7 @@
         <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB24" t="n">
         <v>151</v>
@@ -4899,28 +4899,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H25" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K25" t="n">
         <v>2.5</v>
       </c>
       <c r="L25" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -4929,25 +4929,25 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R25" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T25" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="U25" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="V25" t="n">
         <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="X25" t="n">
         <v>5.9</v>
@@ -4956,22 +4956,22 @@
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>7.3</v>
+        <v>7</v>
       </c>
       <c r="AA25" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD25" t="n">
         <v>11</v>
       </c>
-      <c r="AB25" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE25" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
         <v>120</v>
@@ -4980,34 +4980,34 @@
         <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI25" t="n">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AJ25" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AL25" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AM25" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN25" t="n">
         <v>3</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="AP25" t="n">
         <v>16</v>
       </c>
       <c r="AQ25" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AR25" t="n">
         <v>40</v>
@@ -5019,7 +5019,7 @@
         <v>3.15</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AV25" t="n">
         <v>90</v>
@@ -5028,19 +5028,19 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>10.75</v>
+        <v>11.5</v>
       </c>
       <c r="AY25" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AZ25" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA25" t="n">
         <v>500</v>
       </c>
       <c r="BB25" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -831,7 +831,7 @@
         <v>15</v>
       </c>
       <c r="AI2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -849,7 +849,7 @@
         <v>4.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -894,7 +894,7 @@
         <v>101</v>
       </c>
       <c r="BD2" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I3" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -944,19 +944,19 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O3" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P3" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -980,19 +980,19 @@
         <v>17</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB3" t="n">
         <v>19</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>23</v>
@@ -1001,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
@@ -1061,7 +1061,7 @@
         <v>5.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
         <v>17</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1123,10 +1123,10 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.05</v>
@@ -1141,10 +1141,10 @@
         <v>3.75</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R4" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S4" t="n">
         <v>1.36</v>
@@ -1153,16 +1153,16 @@
         <v>3</v>
       </c>
       <c r="U4" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W4" t="n">
         <v>12</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1177,10 +1177,10 @@
         <v>34</v>
       </c>
       <c r="AC4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>13</v>
@@ -1189,16 +1189,16 @@
         <v>41</v>
       </c>
       <c r="AG4" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH4" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI4" t="n">
         <v>10</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
@@ -1207,7 +1207,7 @@
         <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN4" t="n">
         <v>5.5</v>
@@ -1231,7 +1231,7 @@
         <v>3</v>
       </c>
       <c r="AU4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1241,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA4" t="n">
         <v>34</v>
@@ -1253,7 +1253,7 @@
         <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1319,10 +1319,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.01</v>
+        <v>2.02</v>
       </c>
       <c r="R5" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1501,10 +1501,10 @@
         <v>3</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R6" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1651,40 +1651,40 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H7" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J7" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K7" t="n">
         <v>2.2</v>
       </c>
       <c r="L7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P7" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R7" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S7" t="n">
         <v>1.44</v>
@@ -1693,40 +1693,40 @@
         <v>2.63</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y7" t="n">
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AA7" t="n">
         <v>15</v>
       </c>
       <c r="AB7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG7" t="n">
         <v>1250</v>
@@ -1735,31 +1735,31 @@
         <v>15</v>
       </c>
       <c r="AI7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ7" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>67</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AO7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
       </c>
       <c r="AQ7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR7" t="n">
         <v>51</v>
@@ -1771,26 +1771,26 @@
         <v>2.63</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
       </c>
       <c r="AW7" t="inlineStr"/>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA7" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB7" t="n">
         <v>201</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>351</v>
@@ -1829,28 +1829,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H8" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J8" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O8" t="n">
         <v>1.36</v>
@@ -1898,13 +1898,13 @@
         <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG8" t="n">
         <v>101</v>
@@ -1916,19 +1916,19 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK8" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AL8" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM8" t="n">
         <v>81</v>
       </c>
       <c r="AN8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO8" t="n">
         <v>6.5</v>
@@ -1952,7 +1952,7 @@
         <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
@@ -1965,10 +1965,10 @@
         <v>51</v>
       </c>
       <c r="BA8" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BB8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2005,22 +2005,22 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.63</v>
+        <v>2.4</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -2041,10 +2041,10 @@
         <v>1.57</v>
       </c>
       <c r="S9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
         <v>2.2</v>
@@ -2056,16 +2056,16 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y9" t="n">
         <v>9</v>
       </c>
       <c r="Z9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
@@ -2074,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -2084,13 +2084,13 @@
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK9" t="n">
         <v>51</v>
@@ -2102,16 +2102,16 @@
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AP9" t="n">
         <v>26</v>
       </c>
       <c r="AQ9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR9" t="n">
         <v>67</v>
@@ -2120,7 +2120,7 @@
         <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2132,16 +2132,16 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2185,89 +2185,89 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H10" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.5</v>
       </c>
-      <c r="P10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X10" t="n">
         <v>7</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ10" t="n">
         <v>19</v>
@@ -2279,28 +2279,28 @@
         <v>51</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN10" t="n">
         <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU10" t="n">
         <v>10</v>
@@ -2365,7 +2365,7 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
@@ -2374,13 +2374,13 @@
         <v>2.7</v>
       </c>
       <c r="J11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2395,10 +2395,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2413,7 +2413,7 @@
         <v>2.2</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>13</v>
@@ -2437,7 +2437,7 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2494,7 +2494,7 @@
         <v>501</v>
       </c>
       <c r="AX11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY11" t="n">
         <v>15</v>
@@ -2547,28 +2547,28 @@
         </is>
       </c>
       <c r="G12" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="J12" t="n">
         <v>5</v>
-      </c>
-      <c r="H12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="J12" t="n">
-        <v>5.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
         <v>1.25</v>
@@ -2577,10 +2577,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2589,85 +2589,85 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
       </c>
       <c r="X12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
         <v>51</v>
       </c>
       <c r="AA12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB12" t="n">
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH12" t="n">
         <v>7.5</v>
       </c>
-      <c r="AE12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>7</v>
-      </c>
       <c r="AI12" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO12" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP12" t="n">
         <v>29</v>
       </c>
-      <c r="AP12" t="n">
-        <v>34</v>
-      </c>
       <c r="AQ12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AR12" t="n">
         <v>101</v>
       </c>
-      <c r="AR12" t="n">
-        <v>126</v>
-      </c>
       <c r="AS12" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2676,22 +2676,22 @@
         <v>501</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AY12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AZ12" t="n">
         <v>19</v>
       </c>
       <c r="BA12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="BB12" t="n">
         <v>51</v>
       </c>
       <c r="BC12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD12" t="n">
         <v>81</v>
@@ -2729,22 +2729,22 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="H13" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I13" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="K13" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
         <v>1.04</v>
@@ -2759,10 +2759,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2771,22 +2771,22 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
+        <v>7</v>
+      </c>
+      <c r="X13" t="n">
         <v>6.5</v>
       </c>
-      <c r="X13" t="n">
-        <v>6</v>
-      </c>
       <c r="Y13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -2795,10 +2795,10 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2807,19 +2807,19 @@
         <v>67</v>
       </c>
       <c r="AG13" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="AH13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="n">
         <v>51</v>
@@ -2828,16 +2828,16 @@
         <v>51</v>
       </c>
       <c r="AN13" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2849,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
@@ -2858,7 +2858,7 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
@@ -2867,13 +2867,13 @@
         <v>41</v>
       </c>
       <c r="BA13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BD13" t="n">
         <v>81</v>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I14" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="J14" t="n">
         <v>5.5</v>
@@ -2926,7 +2926,7 @@
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2935,10 +2935,10 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
         <v>1.7</v>
@@ -2962,7 +2962,7 @@
         <v>17</v>
       </c>
       <c r="X14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Y14" t="n">
         <v>19</v>
@@ -2983,7 +2983,7 @@
         <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF14" t="n">
         <v>51</v>
@@ -2992,10 +2992,10 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
@@ -3022,7 +3022,7 @@
         <v>101</v>
       </c>
       <c r="AR14" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS14" t="n">
         <v>201</v>
@@ -3049,7 +3049,7 @@
         <v>17</v>
       </c>
       <c r="BA14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BB14" t="n">
         <v>41</v>
@@ -3093,34 +3093,34 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K15" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>1.7</v>
@@ -3129,25 +3129,25 @@
         <v>2.1</v>
       </c>
       <c r="S15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V15" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z15" t="n">
         <v>29</v>
@@ -3159,7 +3159,7 @@
         <v>26</v>
       </c>
       <c r="AC15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD15" t="n">
         <v>7</v>
@@ -3171,7 +3171,7 @@
         <v>41</v>
       </c>
       <c r="AG15" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH15" t="n">
         <v>10</v>
@@ -3183,13 +3183,13 @@
         <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
         <v>5</v>
@@ -3201,7 +3201,7 @@
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR15" t="n">
         <v>51</v>
@@ -3210,23 +3210,23 @@
         <v>126</v>
       </c>
       <c r="AT15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU15" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>41</v>
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AY15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA15" t="n">
         <v>41</v>
@@ -3235,7 +3235,7 @@
         <v>51</v>
       </c>
       <c r="BC15" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD15" t="inlineStr"/>
     </row>
@@ -3292,13 +3292,13 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P16" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q16" t="n">
         <v>2.25</v>
@@ -3497,7 +3497,7 @@
         <v>1.62</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X17" t="n">
         <v>6.5</v>
@@ -3512,7 +3512,7 @@
         <v>11</v>
       </c>
       <c r="AB17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC17" t="n">
         <v>17</v>
@@ -3530,7 +3530,7 @@
         <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
@@ -3588,7 +3588,7 @@
         <v>301</v>
       </c>
       <c r="BB17" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3989,151 +3989,151 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H20" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="I20" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="J20" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L20" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N20" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="R20" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="S20" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T20" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="U20" t="n">
         <v>2</v>
       </c>
-      <c r="L20" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N20" t="n">
-        <v>6</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P20" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="R20" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="S20" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="T20" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="U20" t="n">
-        <v>1.88</v>
-      </c>
       <c r="V20" t="n">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>6.7</v>
       </c>
       <c r="X20" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="Z20" t="n">
         <v>30</v>
       </c>
       <c r="AA20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AB20" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AC20" t="n">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AE20" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF20" t="n">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AG20" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="AI20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AK20" t="n">
         <v>32</v>
       </c>
       <c r="AL20" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AM20" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="AO20" t="n">
         <v>14.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AR20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AS20" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.55</v>
+        <v>2.42</v>
       </c>
       <c r="AU20" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AW20" t="n">
         <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AY20" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AZ20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BA20" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB20" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BC20" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4171,28 +4171,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="H21" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="I21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M21" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>1.22</v>
@@ -4201,16 +4201,16 @@
         <v>4</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
         <v>2.1</v>
@@ -4219,7 +4219,7 @@
         <v>1.67</v>
       </c>
       <c r="W21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="X21" t="n">
         <v>41</v>
@@ -4228,7 +4228,7 @@
         <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AA21" t="n">
         <v>67</v>
@@ -4240,7 +4240,7 @@
         <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4252,16 +4252,16 @@
         <v>501</v>
       </c>
       <c r="AH21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI21" t="n">
         <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL21" t="n">
         <v>12</v>
@@ -4270,7 +4270,7 @@
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
@@ -4288,10 +4288,10 @@
         <v>401</v>
       </c>
       <c r="AT21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
@@ -4303,13 +4303,13 @@
         <v>3.2</v>
       </c>
       <c r="AY21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AZ21" t="n">
         <v>19</v>
       </c>
       <c r="BA21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BB21" t="n">
         <v>41</v>
@@ -4353,22 +4353,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H22" t="n">
         <v>3.6</v>
       </c>
       <c r="I22" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="J22" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K22" t="n">
         <v>2.2</v>
       </c>
       <c r="L22" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4383,10 +4383,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R22" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4395,22 +4395,22 @@
         <v>2.75</v>
       </c>
       <c r="U22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
@@ -4425,7 +4425,7 @@
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
@@ -4440,7 +4440,7 @@
         <v>21</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK22" t="n">
         <v>41</v>
@@ -4452,7 +4452,7 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO22" t="n">
         <v>9.5</v>
@@ -4461,7 +4461,7 @@
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR22" t="n">
         <v>51</v>
@@ -4473,7 +4473,7 @@
         <v>2.75</v>
       </c>
       <c r="AU22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV22" t="n">
         <v>51</v>
@@ -4485,19 +4485,19 @@
         <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
         <v>101</v>
       </c>
       <c r="BC22" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BD22" t="n">
         <v>81</v>
@@ -4565,10 +4565,10 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4717,19 +4717,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H24" t="n">
         <v>4.5</v>
       </c>
       <c r="I24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J24" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L24" t="n">
         <v>6.5</v>
@@ -4747,10 +4747,10 @@
         <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R24" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S24" t="n">
         <v>1.33</v>
@@ -4774,7 +4774,7 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA24" t="n">
         <v>12</v>
@@ -4786,7 +4786,7 @@
         <v>13</v>
       </c>
       <c r="AD24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4801,13 +4801,13 @@
         <v>19</v>
       </c>
       <c r="AI24" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AJ24" t="n">
         <v>21</v>
       </c>
       <c r="AK24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL24" t="n">
         <v>51</v>
@@ -4819,13 +4819,13 @@
         <v>3.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP24" t="n">
         <v>19</v>
       </c>
       <c r="AQ24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4855,7 +4855,7 @@
         <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB24" t="n">
         <v>151</v>
@@ -4905,13 +4905,13 @@
         <v>5.2</v>
       </c>
       <c r="I25" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J25" t="n">
         <v>1.62</v>
       </c>
       <c r="K25" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="L25" t="n">
         <v>9.5</v>
@@ -4920,7 +4920,7 @@
         <v>1.02</v>
       </c>
       <c r="N25" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -4929,52 +4929,52 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S25" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T25" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U25" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V25" t="n">
         <v>1.55</v>
       </c>
-      <c r="R25" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S25" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="T25" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="U25" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.6</v>
-      </c>
       <c r="W25" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="X25" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AB25" t="n">
         <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AD25" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AF25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG25" t="n">
         <v>1000</v>
@@ -4989,19 +4989,19 @@
         <v>40</v>
       </c>
       <c r="AK25" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL25" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AP25" t="n">
         <v>16</v>
@@ -5019,7 +5019,7 @@
         <v>3.15</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
         <v>90</v>
@@ -5028,7 +5028,7 @@
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AY25" t="n">
         <v>75</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -944,19 +944,19 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O3" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q3" t="n">
         <v>1.4</v>
@@ -980,19 +980,19 @@
         <v>17</v>
       </c>
       <c r="X3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y3" t="n">
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC3" t="n">
         <v>23</v>
@@ -1001,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="AE3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
@@ -1031,7 +1031,7 @@
         <v>5</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
@@ -1061,7 +1061,7 @@
         <v>5.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ3" t="n">
         <v>17</v>
@@ -1070,7 +1070,7 @@
         <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1111,58 +1111,58 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I4" t="n">
         <v>1.95</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N4" t="n">
+        <v>10</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T4" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W4" t="n">
         <v>11</v>
       </c>
-      <c r="O4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P4" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="S4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T4" t="n">
-        <v>3</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W4" t="n">
-        <v>12</v>
-      </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1171,43 +1171,43 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AD4" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH4" t="n">
         <v>7</v>
       </c>
-      <c r="AE4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
         <v>17</v>
       </c>
       <c r="AL4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN4" t="n">
         <v>5.5</v>
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ4" t="n">
         <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
         <v>51</v>
@@ -1241,19 +1241,19 @@
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BB4" t="n">
         <v>51</v>
       </c>
       <c r="BC4" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD4" t="inlineStr"/>
     </row>
@@ -1289,13 +1289,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1319,10 +1319,10 @@
         <v>3.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.02</v>
+        <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S5" t="n">
         <v>1.4</v>
@@ -1331,10 +1331,10 @@
         <v>2.75</v>
       </c>
       <c r="U5" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="V5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>7.5</v>
@@ -1367,7 +1367,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
@@ -1376,7 +1376,7 @@
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1421,7 +1421,7 @@
         <v>5.5</v>
       </c>
       <c r="AY5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ5" t="n">
         <v>29</v>
@@ -1477,16 +1477,16 @@
         <v>4.33</v>
       </c>
       <c r="I6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J6" t="n">
         <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1507,16 +1507,16 @@
         <v>1.65</v>
       </c>
       <c r="S6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V6" t="n">
         <v>1.5</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.44</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1525,7 +1525,7 @@
         <v>5.5</v>
       </c>
       <c r="Y6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z6" t="n">
         <v>8.5</v>
@@ -1537,7 +1537,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
         <v>9</v>
@@ -1546,17 +1546,17 @@
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI6" t="n">
         <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>101</v>
@@ -1574,10 +1574,10 @@
         <v>7</v>
       </c>
       <c r="AP6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR6" t="n">
         <v>51</v>
@@ -1586,13 +1586,13 @@
         <v>251</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU6" t="n">
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
@@ -1610,7 +1610,7 @@
         <v>251</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -1829,22 +1829,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H8" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="I8" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J8" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>2.2</v>
       </c>
       <c r="L8" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1859,10 +1859,10 @@
         <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S8" t="n">
         <v>1.44</v>
@@ -1871,10 +1871,10 @@
         <v>2.63</v>
       </c>
       <c r="U8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W8" t="n">
         <v>5</v>
@@ -1883,10 +1883,10 @@
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA8" t="n">
         <v>15</v>
@@ -1898,13 +1898,13 @@
         <v>8.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE8" t="n">
         <v>29</v>
       </c>
       <c r="AF8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG8" t="n">
         <v>101</v>
@@ -1916,22 +1916,22 @@
         <v>41</v>
       </c>
       <c r="AJ8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AL8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AO8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
@@ -1952,23 +1952,23 @@
         <v>11</v>
       </c>
       <c r="AV8" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW8" t="inlineStr"/>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ8" t="n">
         <v>51</v>
       </c>
       <c r="BA8" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB8" t="n">
         <v>301</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>351</v>
       </c>
       <c r="BC8" t="inlineStr"/>
       <c r="BD8" t="inlineStr"/>
@@ -2203,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
@@ -2395,10 +2395,10 @@
         <v>4</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2547,40 +2547,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H12" t="n">
         <v>3.6</v>
       </c>
       <c r="I12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="K12" t="n">
         <v>2.25</v>
       </c>
       <c r="L12" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O12" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2589,10 +2589,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
@@ -2601,16 +2601,16 @@
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA12" t="n">
         <v>34</v>
       </c>
       <c r="AB12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC12" t="n">
         <v>12</v>
@@ -2622,22 +2622,22 @@
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG12" t="n">
         <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ12" t="n">
         <v>8.5</v>
       </c>
       <c r="AK12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL12" t="n">
         <v>13</v>
@@ -2646,28 +2646,28 @@
         <v>23</v>
       </c>
       <c r="AN12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP12" t="n">
         <v>29</v>
       </c>
       <c r="AQ12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AR12" t="n">
         <v>81</v>
       </c>
-      <c r="AR12" t="n">
-        <v>101</v>
-      </c>
       <c r="AS12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2676,10 +2676,10 @@
         <v>501</v>
       </c>
       <c r="AX12" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AY12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AZ12" t="n">
         <v>19</v>
@@ -2729,13 +2729,13 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J13" t="n">
         <v>1.95</v>
@@ -2747,22 +2747,22 @@
         <v>7</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2771,13 +2771,13 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V13" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X13" t="n">
         <v>6.5</v>
@@ -2786,7 +2786,7 @@
         <v>8.5</v>
       </c>
       <c r="Z13" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA13" t="n">
         <v>12</v>
@@ -2813,7 +2813,7 @@
         <v>17</v>
       </c>
       <c r="AI13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="n">
         <v>21</v>
@@ -2849,7 +2849,7 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV13" t="n">
         <v>67</v>
@@ -2858,7 +2858,7 @@
         <v>81</v>
       </c>
       <c r="AX13" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AY13" t="n">
         <v>41</v>
@@ -3093,16 +3093,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="H15" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>2.25</v>
@@ -3123,10 +3123,10 @@
         <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S15" t="n">
         <v>1.33</v>
@@ -3135,10 +3135,10 @@
         <v>3.25</v>
       </c>
       <c r="U15" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W15" t="n">
         <v>11</v>
@@ -3147,7 +3147,7 @@
         <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>29</v>
@@ -3159,13 +3159,13 @@
         <v>26</v>
       </c>
       <c r="AC15" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE15" t="n">
         <v>13</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>12</v>
       </c>
       <c r="AF15" t="n">
         <v>41</v>
@@ -3174,7 +3174,7 @@
         <v>151</v>
       </c>
       <c r="AH15" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI15" t="n">
         <v>13</v>
@@ -3189,7 +3189,7 @@
         <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
         <v>5</v>
@@ -3201,10 +3201,10 @@
         <v>21</v>
       </c>
       <c r="AQ15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
         <v>126</v>
@@ -3216,11 +3216,11 @@
         <v>7.5</v>
       </c>
       <c r="AV15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="inlineStr"/>
       <c r="AX15" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AY15" t="n">
         <v>13</v>
@@ -3301,10 +3301,10 @@
         <v>2.75</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R16" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S16" t="n">
         <v>1.5</v>
@@ -3455,76 +3455,76 @@
         <v>6.5</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
         <v>1.57</v>
       </c>
       <c r="K17" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O17" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P17" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R17" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S17" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U17" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="V17" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="W17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y17" t="n">
         <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD17" t="n">
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG17" t="n">
         <v>900</v>
@@ -3539,44 +3539,44 @@
         <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM17" t="n">
         <v>81</v>
       </c>
-      <c r="AM17" t="n">
-        <v>67</v>
-      </c>
       <c r="AN17" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AO17" t="n">
         <v>5</v>
       </c>
       <c r="AP17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ17" t="n">
         <v>12</v>
       </c>
       <c r="AR17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW17" t="inlineStr"/>
       <c r="AX17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY17" t="n">
         <v>51</v>
@@ -3585,10 +3585,10 @@
         <v>51</v>
       </c>
       <c r="BA17" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3989,22 +3989,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.62</v>
+        <v>2.45</v>
       </c>
       <c r="H20" t="n">
         <v>2.95</v>
       </c>
       <c r="I20" t="n">
-        <v>2.77</v>
+        <v>3.05</v>
       </c>
       <c r="J20" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="K20" t="n">
         <v>1.95</v>
       </c>
       <c r="L20" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M20" t="n">
         <v>1.11</v>
@@ -4016,88 +4016,88 @@
         <v>1.47</v>
       </c>
       <c r="P20" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.37</v>
+        <v>2.35</v>
       </c>
       <c r="R20" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="V20" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W20" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="X20" t="n">
-        <v>11.75</v>
+        <v>10.5</v>
       </c>
       <c r="Y20" t="n">
-        <v>10.25</v>
+        <v>9.75</v>
       </c>
       <c r="Z20" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA20" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AB20" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC20" t="n">
         <v>5.7</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AE20" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AF20" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AG20" t="n">
         <v>900</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>7.7</v>
       </c>
       <c r="AI20" t="n">
-        <v>12.5</v>
+        <v>14.5</v>
       </c>
       <c r="AJ20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AK20" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
         <v>45</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AP20" t="n">
         <v>25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR20" t="n">
         <v>120</v>
@@ -4106,10 +4106,10 @@
         <v>400</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AV20" t="n">
         <v>80</v>
@@ -4118,16 +4118,16 @@
         <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="AY20" t="n">
-        <v>15.5</v>
+        <v>17</v>
       </c>
       <c r="AZ20" t="n">
         <v>26</v>
       </c>
       <c r="BA20" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BB20" t="n">
         <v>120</v>
@@ -4195,16 +4195,16 @@
         <v>15</v>
       </c>
       <c r="O21" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
         <v>1.33</v>
@@ -4353,22 +4353,22 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="H22" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I22" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="J22" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="K22" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L22" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M22" t="n">
         <v>1.05</v>
@@ -4383,10 +4383,10 @@
         <v>3.5</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="R22" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S22" t="n">
         <v>1.4</v>
@@ -4401,31 +4401,31 @@
         <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y22" t="n">
         <v>9</v>
       </c>
       <c r="Z22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA22" t="n">
         <v>15</v>
       </c>
       <c r="AB22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD22" t="n">
         <v>7</v>
       </c>
       <c r="AE22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF22" t="n">
         <v>51</v>
@@ -4434,13 +4434,13 @@
         <v>700</v>
       </c>
       <c r="AH22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI22" t="n">
         <v>21</v>
       </c>
       <c r="AJ22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>41</v>
@@ -4452,16 +4452,16 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP22" t="n">
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR22" t="n">
         <v>51</v>
@@ -4485,13 +4485,13 @@
         <v>6</v>
       </c>
       <c r="AY22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ22" t="n">
         <v>29</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB22" t="n">
         <v>101</v>
@@ -4535,22 +4535,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.9</v>
+        <v>3.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
       </c>
       <c r="L23" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="M23" t="n">
         <v>1.05</v>
@@ -4559,16 +4559,16 @@
         <v>8.5</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R23" t="n">
         <v>1.85</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.95</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4577,76 +4577,76 @@
         <v>2.75</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W23" t="n">
+        <v>11</v>
+      </c>
+      <c r="X23" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>13</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC23" t="n">
         <v>10</v>
-      </c>
-      <c r="X23" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG23" t="n">
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ23" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK23" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AQ23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS23" t="n">
         <v>151</v>
@@ -4664,10 +4664,10 @@
         <v>81</v>
       </c>
       <c r="AX23" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="AY23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
@@ -4729,10 +4729,10 @@
         <v>1.91</v>
       </c>
       <c r="K24" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L24" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
@@ -4747,25 +4747,25 @@
         <v>4.33</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R24" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S24" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V24" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W24" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
@@ -4789,13 +4789,13 @@
         <v>9</v>
       </c>
       <c r="AE24" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AH24" t="n">
         <v>19</v>
@@ -4813,16 +4813,16 @@
         <v>51</v>
       </c>
       <c r="AM24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
         <v>7</v>
       </c>
       <c r="AP24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ24" t="n">
         <v>19</v>
@@ -4834,7 +4834,7 @@
         <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU24" t="n">
         <v>9</v>
@@ -4846,7 +4846,7 @@
         <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY24" t="n">
         <v>34</v>
@@ -4899,28 +4899,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="H25" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="I25" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K25" t="n">
-        <v>2.52</v>
+        <v>2.62</v>
       </c>
       <c r="L25" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="M25" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -4929,109 +4929,109 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R25" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="S25" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="T25" t="n">
-        <v>3.42</v>
+        <v>3.78</v>
       </c>
       <c r="U25" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="V25" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="W25" t="n">
-        <v>6.9</v>
+        <v>7.4</v>
       </c>
       <c r="X25" t="n">
-        <v>5.7</v>
+        <v>6</v>
       </c>
       <c r="Y25" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA25" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AF25" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="n">
         <v>1000</v>
       </c>
       <c r="AH25" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AI25" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AJ25" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK25" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL25" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM25" t="n">
         <v>150</v>
       </c>
       <c r="AN25" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="AO25" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="AP25" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AR25" t="n">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="AS25" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV25" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW25" t="n">
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY25" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="AZ25" t="n">
         <v>60</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="H2" t="n">
         <v>3.7</v>
       </c>
       <c r="I2" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K2" t="n">
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M2" t="n">
         <v>1.03</v>
@@ -795,19 +795,19 @@
         <v>2.5</v>
       </c>
       <c r="W2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X2" t="n">
         <v>15</v>
       </c>
       <c r="Y2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB2" t="n">
         <v>23</v>
@@ -834,25 +834,25 @@
         <v>19</v>
       </c>
       <c r="AJ2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK2" t="n">
         <v>34</v>
       </c>
       <c r="AL2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM2" t="n">
         <v>26</v>
       </c>
       <c r="AN2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO2" t="n">
         <v>12</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -876,16 +876,16 @@
         <v>351</v>
       </c>
       <c r="AX2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AY2" t="n">
         <v>15</v>
       </c>
       <c r="AZ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="BA2" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB2" t="n">
         <v>51</v>
@@ -935,7 +935,7 @@
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -986,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="Z3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -1025,7 +1025,7 @@
         <v>21</v>
       </c>
       <c r="AM3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
         <v>5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
@@ -1126,7 +1126,7 @@
         <v>2.1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
@@ -1135,10 +1135,10 @@
         <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q4" t="n">
         <v>2.05</v>
@@ -1159,7 +1159,7 @@
         <v>1.83</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -1171,7 +1171,7 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1195,7 +1195,7 @@
         <v>7</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
@@ -1244,7 +1244,7 @@
         <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA4" t="n">
         <v>41</v>
@@ -1295,7 +1295,7 @@
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1304,31 +1304,31 @@
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q5" t="n">
         <v>2.05</v>
       </c>
       <c r="R5" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="S5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>1.8</v>
@@ -1337,25 +1337,25 @@
         <v>1.95</v>
       </c>
       <c r="W5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1385,7 +1385,7 @@
         <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="n">
         <v>4</v>
@@ -1406,7 +1406,7 @@
         <v>151</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8</v>
@@ -1430,7 +1430,7 @@
         <v>67</v>
       </c>
       <c r="BB5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC5" t="n">
         <v>201</v>
@@ -1471,22 +1471,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I6" t="n">
         <v>8.5</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K6" t="n">
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="M6" t="n">
         <v>1.07</v>
@@ -1513,10 +1513,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W6" t="n">
         <v>5</v>
@@ -1546,7 +1546,7 @@
         <v>29</v>
       </c>
       <c r="AF6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
@@ -1562,7 +1562,7 @@
         <v>101</v>
       </c>
       <c r="AL6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AM6" t="n">
         <v>81</v>
@@ -1592,16 +1592,16 @@
         <v>11</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW6" t="n">
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1610,7 +1610,7 @@
         <v>251</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -2023,10 +2023,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J10" t="n">
         <v>2.6</v>
@@ -2203,10 +2203,10 @@
         <v>6</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O10" t="n">
         <v>1.57</v>
@@ -2242,10 +2242,10 @@
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2267,13 +2267,13 @@
         <v>10</v>
       </c>
       <c r="AI10" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
@@ -2285,7 +2285,7 @@
         <v>3.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
@@ -2297,16 +2297,16 @@
         <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT10" t="n">
         <v>2.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW10" t="n">
         <v>126</v>
@@ -2321,7 +2321,7 @@
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -2365,22 +2365,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.45</v>
+        <v>2.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>2.7</v>
+        <v>3</v>
       </c>
       <c r="J11" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M11" t="n">
         <v>1.04</v>
@@ -2389,16 +2389,16 @@
         <v>13</v>
       </c>
       <c r="O11" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.73</v>
+        <v>1.85</v>
       </c>
       <c r="R11" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="S11" t="n">
         <v>1.36</v>
@@ -2407,25 +2407,25 @@
         <v>3</v>
       </c>
       <c r="U11" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V11" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z11" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB11" t="n">
         <v>26</v>
@@ -2437,7 +2437,7 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF11" t="n">
         <v>41</v>
@@ -2446,28 +2446,28 @@
         <v>151</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK11" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM11" t="n">
         <v>29</v>
       </c>
-      <c r="AL11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>26</v>
-      </c>
       <c r="AN11" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP11" t="n">
         <v>21</v>
@@ -2479,7 +2479,7 @@
         <v>51</v>
       </c>
       <c r="AS11" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT11" t="n">
         <v>3</v>
@@ -2494,13 +2494,13 @@
         <v>501</v>
       </c>
       <c r="AX11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AY11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
@@ -2550,10 +2550,10 @@
         <v>4.1</v>
       </c>
       <c r="H12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="J12" t="n">
         <v>4.5</v>
@@ -2568,19 +2568,19 @@
         <v>1.04</v>
       </c>
       <c r="N12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R12" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S12" t="n">
         <v>1.36</v>
@@ -2589,10 +2589,10 @@
         <v>3</v>
       </c>
       <c r="U12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
         <v>13</v>
@@ -2601,7 +2601,7 @@
         <v>23</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z12" t="n">
         <v>41</v>
@@ -2619,7 +2619,7 @@
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2640,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM12" t="n">
         <v>23</v>
@@ -2661,13 +2661,13 @@
         <v>81</v>
       </c>
       <c r="AS12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT12" t="n">
         <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV12" t="n">
         <v>51</v>
@@ -2735,22 +2735,22 @@
         <v>4.33</v>
       </c>
       <c r="I13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J13" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K13" t="n">
         <v>2.38</v>
       </c>
       <c r="L13" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2810,16 +2810,16 @@
         <v>401</v>
       </c>
       <c r="AH13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI13" t="n">
         <v>41</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL13" t="n">
         <v>51</v>
@@ -2831,13 +2831,13 @@
         <v>3.25</v>
       </c>
       <c r="AO13" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP13" t="n">
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR13" t="n">
         <v>41</v>
@@ -2870,7 +2870,7 @@
         <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC13" t="n">
         <v>351</v>
@@ -2914,25 +2914,25 @@
         <v>6.25</v>
       </c>
       <c r="H14" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I14" t="n">
         <v>1.5</v>
       </c>
       <c r="J14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L14" t="n">
         <v>2.05</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2941,10 +2941,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -2959,7 +2959,7 @@
         <v>1.91</v>
       </c>
       <c r="W14" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="X14" t="n">
         <v>34</v>
@@ -2992,7 +2992,7 @@
         <v>201</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>7.5</v>
@@ -3040,7 +3040,7 @@
         <v>51</v>
       </c>
       <c r="AX14" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AY14" t="n">
         <v>7.5</v>
@@ -3521,7 +3521,7 @@
         <v>13</v>
       </c>
       <c r="AE17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF17" t="n">
         <v>101</v>
@@ -3542,7 +3542,7 @@
         <v>201</v>
       </c>
       <c r="AL17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM17" t="n">
         <v>81</v>
@@ -3569,7 +3569,7 @@
         <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
@@ -3989,34 +3989,34 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.45</v>
+        <v>2.27</v>
       </c>
       <c r="H20" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J20" t="n">
         <v>2.95</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="J20" t="n">
-        <v>3.15</v>
-      </c>
       <c r="K20" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L20" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="M20" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P20" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="Q20" t="n">
         <v>2.35</v>
@@ -4028,88 +4028,88 @@
         <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="U20" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="W20" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X20" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA20" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AB20" t="n">
         <v>40</v>
       </c>
       <c r="AC20" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AD20" t="n">
-        <v>5.7</v>
+        <v>5.9</v>
       </c>
       <c r="AE20" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AF20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AG20" t="n">
         <v>900</v>
       </c>
       <c r="AH20" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AI20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK20" t="n">
         <v>40</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM20" t="n">
         <v>45</v>
       </c>
       <c r="AN20" t="n">
-        <v>4.2</v>
+        <v>4.05</v>
       </c>
       <c r="AO20" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AP20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AQ20" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS20" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="AU20" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AV20" t="n">
         <v>80</v>
@@ -4118,19 +4118,19 @@
         <v>126</v>
       </c>
       <c r="AX20" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AY20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ20" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA20" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB20" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="BC20" t="n">
         <v>400</v>
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H21" t="n">
         <v>5.25</v>
@@ -4180,7 +4180,7 @@
         <v>1.3</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K21" t="n">
         <v>2.5</v>
@@ -4201,22 +4201,22 @@
         <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W21" t="n">
         <v>21</v>
@@ -4228,16 +4228,16 @@
         <v>26</v>
       </c>
       <c r="Z21" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AA21" t="n">
         <v>67</v>
       </c>
       <c r="AB21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>10</v>
@@ -4246,25 +4246,25 @@
         <v>23</v>
       </c>
       <c r="AF21" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH21" t="n">
         <v>7</v>
       </c>
       <c r="AI21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
         <v>8</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
@@ -4285,13 +4285,13 @@
         <v>201</v>
       </c>
       <c r="AS21" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV21" t="n">
         <v>67</v>
@@ -4315,7 +4315,7 @@
         <v>41</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD21" t="n">
         <v>126</v>
@@ -4717,52 +4717,52 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.4</v>
+        <v>1.29</v>
       </c>
       <c r="H24" t="n">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="I24" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="J24" t="n">
-        <v>1.91</v>
+        <v>1.73</v>
       </c>
       <c r="K24" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.03</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="O24" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P24" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q24" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R24" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="S24" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U24" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W24" t="n">
         <v>8</v>
@@ -4774,58 +4774,58 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AA24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB24" t="n">
         <v>26</v>
       </c>
       <c r="AC24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD24" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE24" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF24" t="n">
         <v>51</v>
       </c>
       <c r="AG24" t="n">
-        <v>700</v>
+        <v>900</v>
       </c>
       <c r="AH24" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ24" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK24" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AL24" t="n">
         <v>51</v>
       </c>
       <c r="AM24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP24" t="n">
         <v>17</v>
       </c>
       <c r="AQ24" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AR24" t="n">
         <v>41</v>
@@ -4834,10 +4834,10 @@
         <v>126</v>
       </c>
       <c r="AT24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV24" t="n">
         <v>51</v>
@@ -4846,16 +4846,16 @@
         <v>81</v>
       </c>
       <c r="AX24" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AY24" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ24" t="n">
         <v>41</v>
       </c>
       <c r="BA24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB24" t="n">
         <v>151</v>
@@ -4899,28 +4899,28 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H25" t="n">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="I25" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="J25" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="K25" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="L25" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="M25" t="n">
         <v>1.01</v>
       </c>
       <c r="N25" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="O25" t="n">
         <v>1.19</v>
@@ -4929,52 +4929,52 @@
         <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R25" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="S25" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="T25" t="n">
-        <v>3.78</v>
+        <v>3.75</v>
       </c>
       <c r="U25" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="W25" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X25" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AA25" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB25" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AC25" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE25" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AF25" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG25" t="n">
         <v>1000</v>
@@ -4986,10 +4986,10 @@
         <v>150</v>
       </c>
       <c r="AJ25" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK25" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL25" t="n">
         <v>250</v>
@@ -5001,13 +5001,13 @@
         <v>3.05</v>
       </c>
       <c r="AO25" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AP25" t="n">
         <v>14.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11.25</v>
+        <v>10.5</v>
       </c>
       <c r="AR25" t="n">
         <v>32</v>
@@ -5016,25 +5016,25 @@
         <v>175</v>
       </c>
       <c r="AT25" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AV25" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AW25" t="n">
         <v>81</v>
       </c>
       <c r="AX25" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY25" t="n">
         <v>90</v>
       </c>
       <c r="AZ25" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA25" t="n">
         <v>500</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -747,76 +747,76 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="H2" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I2" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="J2" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L2" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
         <v>1.57</v>
       </c>
-      <c r="R2" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V2" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="W2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
         <v>11</v>
       </c>
       <c r="Z2" t="n">
+        <v>29</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB2" t="n">
         <v>26</v>
       </c>
-      <c r="AA2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>23</v>
-      </c>
       <c r="AC2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE2" t="n">
         <v>13</v>
@@ -825,19 +825,19 @@
         <v>41</v>
       </c>
       <c r="AG2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH2" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ2" t="n">
         <v>11</v>
       </c>
       <c r="AK2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL2" t="n">
         <v>21</v>
@@ -849,10 +849,10 @@
         <v>4.75</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ2" t="n">
         <v>41</v>
@@ -861,10 +861,10 @@
         <v>51</v>
       </c>
       <c r="AS2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>7</v>
@@ -873,16 +873,16 @@
         <v>41</v>
       </c>
       <c r="AW2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AX2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AY2" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AZ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BA2" t="n">
         <v>41</v>
@@ -891,7 +891,7 @@
         <v>51</v>
       </c>
       <c r="BC2" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BD2" t="n">
         <v>150</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.02</v>
@@ -959,34 +959,34 @@
         <v>6</v>
       </c>
       <c r="Q3" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S3" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T3" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U3" t="n">
         <v>1.4</v>
       </c>
-      <c r="R3" t="n">
-        <v>3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T3" t="n">
-        <v>4</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.36</v>
-      </c>
       <c r="V3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="Y3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -995,13 +995,13 @@
         <v>21</v>
       </c>
       <c r="AC3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF3" t="n">
         <v>29</v>
@@ -1013,25 +1013,25 @@
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP3" t="n">
         <v>15</v>
@@ -1046,31 +1046,31 @@
         <v>81</v>
       </c>
       <c r="AT3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW3" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AX3" t="n">
         <v>5.5</v>
       </c>
       <c r="AY3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="BA3" t="n">
         <v>41</v>
       </c>
       <c r="BB3" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BC3" t="n">
         <v>81</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
         <v>2.1</v>
@@ -1132,7 +1132,7 @@
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.3</v>
@@ -1141,10 +1141,10 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R4" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="S4" t="n">
         <v>1.44</v>
@@ -1153,16 +1153,16 @@
         <v>2.63</v>
       </c>
       <c r="U4" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V4" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W4" t="n">
         <v>10</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6.5</v>
@@ -1192,16 +1192,16 @@
         <v>251</v>
       </c>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1222,7 +1222,7 @@
         <v>67</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1241,7 +1241,7 @@
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ4" t="n">
         <v>23</v>
@@ -1355,7 +1355,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD5" t="n">
         <v>6.5</v>
@@ -1370,7 +1370,7 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
@@ -1394,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -2023,10 +2023,10 @@
         <v>5.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
         <v>1.44</v>
@@ -2732,7 +2732,7 @@
         <v>1.38</v>
       </c>
       <c r="H13" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I13" t="n">
         <v>7.5</v>
@@ -2753,16 +2753,16 @@
         <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2771,10 +2771,10 @@
         <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W13" t="n">
         <v>6.5</v>
@@ -2795,10 +2795,10 @@
         <v>29</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE13" t="n">
         <v>21</v>
@@ -2819,7 +2819,7 @@
         <v>23</v>
       </c>
       <c r="AK13" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL13" t="n">
         <v>51</v>
@@ -2870,7 +2870,7 @@
         <v>151</v>
       </c>
       <c r="BB13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC13" t="n">
         <v>351</v>
@@ -2911,13 +2911,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>6.25</v>
+        <v>6.5</v>
       </c>
       <c r="H14" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I14" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="J14" t="n">
         <v>6</v>
@@ -2926,7 +2926,7 @@
         <v>2.4</v>
       </c>
       <c r="L14" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="M14" t="n">
         <v>1.03</v>
@@ -2935,22 +2935,22 @@
         <v>15</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R14" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S14" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U14" t="n">
         <v>1.8</v>
@@ -2965,7 +2965,7 @@
         <v>34</v>
       </c>
       <c r="Y14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z14" t="n">
         <v>67</v>
@@ -3028,7 +3028,7 @@
         <v>201</v>
       </c>
       <c r="AT14" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU14" t="n">
         <v>8.5</v>
@@ -3043,7 +3043,7 @@
         <v>3.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AZ14" t="n">
         <v>17</v>
@@ -3055,7 +3055,7 @@
         <v>41</v>
       </c>
       <c r="BC14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BD14" t="n">
         <v>51</v>
@@ -3470,7 +3470,7 @@
         <v>1.03</v>
       </c>
       <c r="N17" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
         <v>1.17</v>
@@ -3503,7 +3503,7 @@
         <v>6</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z17" t="n">
         <v>6.5</v>
@@ -3530,10 +3530,10 @@
         <v>900</v>
       </c>
       <c r="AH17" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ17" t="n">
         <v>34</v>
@@ -3542,7 +3542,7 @@
         <v>201</v>
       </c>
       <c r="AL17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AM17" t="n">
         <v>81</v>
@@ -3569,7 +3569,7 @@
         <v>3.5</v>
       </c>
       <c r="AU17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV17" t="n">
         <v>81</v>
@@ -4174,7 +4174,7 @@
         <v>9</v>
       </c>
       <c r="H21" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="I21" t="n">
         <v>1.3</v>
@@ -4183,7 +4183,7 @@
         <v>8.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L21" t="n">
         <v>1.8</v>
@@ -4201,22 +4201,22 @@
         <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R21" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U21" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W21" t="n">
         <v>21</v>
@@ -4237,10 +4237,10 @@
         <v>51</v>
       </c>
       <c r="AC21" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE21" t="n">
         <v>23</v>
@@ -4252,25 +4252,25 @@
         <v>451</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK21" t="n">
         <v>8</v>
       </c>
       <c r="AL21" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM21" t="n">
         <v>29</v>
       </c>
       <c r="AN21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AO21" t="n">
         <v>41</v>
@@ -4285,10 +4285,10 @@
         <v>201</v>
       </c>
       <c r="AS21" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU21" t="n">
         <v>9.5</v>
@@ -4315,7 +4315,7 @@
         <v>41</v>
       </c>
       <c r="BC21" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD21" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -932,13 +932,13 @@
         <v>2.1</v>
       </c>
       <c r="H3" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
@@ -980,7 +980,7 @@
         <v>15</v>
       </c>
       <c r="X3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y3" t="n">
         <v>10</v>
@@ -998,22 +998,22 @@
         <v>21</v>
       </c>
       <c r="AD3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE3" t="n">
         <v>12</v>
       </c>
       <c r="AF3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG3" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH3" t="n">
         <v>19</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
         <v>13</v>
@@ -1025,7 +1025,7 @@
         <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN3" t="n">
         <v>4.75</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.3</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
         <v>4</v>
@@ -1141,16 +1141,16 @@
         <v>3.4</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R4" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U4" t="n">
         <v>1.8</v>
@@ -1159,10 +1159,10 @@
         <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>13</v>
@@ -1195,13 +1195,13 @@
         <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>17</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
@@ -1228,7 +1228,7 @@
         <v>201</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU4" t="n">
         <v>8</v>
@@ -1241,10 +1241,10 @@
         <v>4</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BA4" t="n">
         <v>41</v>
@@ -1289,16 +1289,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1340,7 +1340,7 @@
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1370,7 +1370,7 @@
         <v>251</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>19</v>
@@ -1382,7 +1382,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1394,7 +1394,7 @@
         <v>11</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
@@ -1489,22 +1489,22 @@
         <v>9</v>
       </c>
       <c r="M6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R6" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -2008,7 +2008,7 @@
         <v>1.73</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I9" t="n">
         <v>5</v>
@@ -2017,7 +2017,7 @@
         <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L9" t="n">
         <v>5.5</v>
@@ -2029,16 +2029,16 @@
         <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
         <v>1.5</v>
@@ -2071,7 +2071,7 @@
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>7</v>
@@ -2080,7 +2080,7 @@
         <v>21</v>
       </c>
       <c r="AF9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
@@ -2108,7 +2108,7 @@
         <v>9.5</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ9" t="n">
         <v>34</v>
@@ -2117,7 +2117,7 @@
         <v>67</v>
       </c>
       <c r="AS9" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT9" t="n">
         <v>2.5</v>
@@ -2126,7 +2126,7 @@
         <v>9.5</v>
       </c>
       <c r="AV9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW9" t="n">
         <v>126</v>
@@ -2141,7 +2141,7 @@
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2185,34 +2185,34 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="I10" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L10" t="n">
         <v>5.5</v>
       </c>
-      <c r="J10" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="L10" t="n">
-        <v>6</v>
-      </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
         <v>2.88</v>
@@ -2221,10 +2221,10 @@
         <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U10" t="n">
         <v>2.5</v>
@@ -2236,16 +2236,16 @@
         <v>4.75</v>
       </c>
       <c r="X10" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2254,7 +2254,7 @@
         <v>5.5</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
@@ -2264,16 +2264,16 @@
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
         <v>51</v>
@@ -2282,10 +2282,10 @@
         <v>67</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
@@ -2300,10 +2300,10 @@
         <v>351</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU10" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
         <v>101</v>
@@ -2312,16 +2312,16 @@
         <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ10" t="n">
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
         <v>201</v>
@@ -4171,19 +4171,19 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="H21" t="n">
         <v>5</v>
       </c>
       <c r="I21" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="J21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L21" t="n">
         <v>1.8</v>
@@ -4201,22 +4201,22 @@
         <v>4.33</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S21" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U21" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="W21" t="n">
         <v>21</v>
@@ -4231,43 +4231,43 @@
         <v>101</v>
       </c>
       <c r="AA21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB21" t="n">
         <v>51</v>
       </c>
       <c r="AC21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD21" t="n">
         <v>9.5</v>
       </c>
       <c r="AE21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF21" t="n">
         <v>67</v>
       </c>
       <c r="AG21" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
         <v>6.5</v>
       </c>
-      <c r="AI21" t="n">
-        <v>6</v>
-      </c>
       <c r="AJ21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK21" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AL21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN21" t="n">
         <v>9.5</v>
@@ -4279,34 +4279,34 @@
         <v>41</v>
       </c>
       <c r="AQ21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AR21" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS21" t="n">
-        <v>401</v>
+        <v>301</v>
       </c>
       <c r="AT21" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU21" t="n">
         <v>9.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
         <v>126</v>
       </c>
       <c r="AX21" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AY21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AZ21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BA21" t="n">
         <v>17</v>
@@ -4315,7 +4315,7 @@
         <v>41</v>
       </c>
       <c r="BC21" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD21" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -1111,40 +1111,40 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H4" t="n">
         <v>3.6</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.3</v>
-      </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="J4" t="n">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.75</v>
+        <v>2.4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N4" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="O4" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P4" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R4" t="n">
         <v>2</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.8</v>
       </c>
       <c r="S4" t="n">
         <v>1.4</v>
@@ -1159,28 +1159,28 @@
         <v>1.91</v>
       </c>
       <c r="W4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE4" t="n">
         <v>15</v>
@@ -1195,34 +1195,34 @@
         <v>7.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>29</v>
       </c>
       <c r="AQ4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS4" t="n">
         <v>201</v>
@@ -1238,16 +1238,16 @@
       </c>
       <c r="AW4" t="inlineStr"/>
       <c r="AX4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AY4" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AZ4" t="n">
         <v>21</v>
       </c>
       <c r="BA4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BB4" t="n">
         <v>51</v>
@@ -1289,76 +1289,76 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H5" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U5" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V5" t="n">
         <v>1.8</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.95</v>
       </c>
       <c r="W5" t="n">
         <v>7</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE5" t="n">
         <v>15</v>
@@ -1367,13 +1367,13 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ5" t="n">
         <v>13</v>
@@ -1382,7 +1382,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1391,28 +1391,28 @@
         <v>4</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ5" t="n">
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>126</v>
@@ -1433,7 +1433,7 @@
         <v>101</v>
       </c>
       <c r="BC5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD5" t="n">
         <v>126</v>
@@ -1471,13 +1471,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="H6" t="n">
         <v>4.5</v>
       </c>
       <c r="I6" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="J6" t="n">
         <v>1.95</v>
@@ -1486,19 +1486,19 @@
         <v>2.2</v>
       </c>
       <c r="L6" t="n">
+        <v>10</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N6" t="n">
         <v>9</v>
       </c>
-      <c r="M6" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N6" t="n">
-        <v>8</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q6" t="n">
         <v>2.25</v>
@@ -1507,28 +1507,28 @@
         <v>1.62</v>
       </c>
       <c r="S6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="X6" t="n">
         <v>5</v>
-      </c>
-      <c r="X6" t="n">
-        <v>5.5</v>
       </c>
       <c r="Y6" t="n">
         <v>9.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA6" t="n">
         <v>15</v>
@@ -1537,16 +1537,16 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AF6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="n">
@@ -1556,25 +1556,25 @@
         <v>41</v>
       </c>
       <c r="AJ6" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK6" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL6" t="n">
         <v>81</v>
       </c>
       <c r="AM6" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="AO6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ6" t="n">
         <v>21</v>
@@ -1583,13 +1583,13 @@
         <v>51</v>
       </c>
       <c r="AS6" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV6" t="n">
         <v>101</v>
@@ -1598,7 +1598,7 @@
         <v>126</v>
       </c>
       <c r="AX6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>51</v>
@@ -1607,10 +1607,10 @@
         <v>51</v>
       </c>
       <c r="BA6" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BB6" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="BC6" t="n">
         <v>501</v>
@@ -2005,76 +2005,76 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="H9" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J9" t="n">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="K9" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L9" t="n">
+        <v>6</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N9" t="n">
+        <v>10</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.05</v>
       </c>
-      <c r="L9" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N9" t="n">
-        <v>8</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.3</v>
-      </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD9" t="n">
         <v>7.5</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>7</v>
       </c>
       <c r="AE9" t="n">
         <v>21</v>
@@ -2084,43 +2084,43 @@
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO9" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ9" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS9" t="n">
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU9" t="n">
         <v>9.5</v>
@@ -2132,16 +2132,16 @@
         <v>126</v>
       </c>
       <c r="AX9" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>41</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>151</v>
@@ -2185,28 +2185,28 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="H10" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O10" t="n">
         <v>1.62</v>
@@ -2215,10 +2215,10 @@
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
         <v>1.67</v>
@@ -2233,25 +2233,25 @@
         <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2264,31 +2264,31 @@
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
       </c>
       <c r="AL10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2315,16 +2315,16 @@
         <v>6</v>
       </c>
       <c r="AY10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ10" t="n">
         <v>41</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-05.xlsx
@@ -2185,13 +2185,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="H10" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>3</v>
@@ -2203,10 +2203,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.62</v>
@@ -2227,16 +2227,16 @@
         <v>2.1</v>
       </c>
       <c r="U10" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W10" t="n">
         <v>5</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
@@ -2251,16 +2251,16 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
@@ -2273,7 +2273,7 @@
         <v>17</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2282,7 +2282,7 @@
         <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO10" t="n">
         <v>13</v>
@@ -2291,7 +2291,7 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
@@ -2306,13 +2306,13 @@
         <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
         <v>126</v>
       </c>
       <c r="AX10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AY10" t="n">
         <v>26</v>
